--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -29,10 +29,10 @@
       <b val="1"/>
     </font>
     <font>
-      <color rgb="00FF0000"/>
+      <color rgb="00006400"/>
     </font>
     <font>
-      <color rgb="00006400"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:D346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,131 +472,131 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Samra Basharat </t>
+          <t>Ayesha Siddiqia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Mishsd</t>
+          <t>Mishaal Farhan</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Emaan Rafiq</t>
+          <t>Mahjbeen Kashif</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Mishaal Farhan</t>
+          <t>Nadia Yaqoob</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Farzana Imran</t>
+          <t>Zenab Irshad</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Mishaal Farhan</t>
+          <t>Nadia Yaqoob</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Shazia Saeed</t>
+          <t xml:space="preserve">Bisma Irshd </t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Mishaal Farhan</t>
+          <t>Nadia Yaqoob</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Ayesha Siddiqia</t>
+          <t>Sobia</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Mishaal Farhan</t>
+          <t>Nadia Yaqoob</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Aqsa Mushtaq</t>
+          <t xml:space="preserve">Rifat Ahmad </t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Mishaal Farhan</t>
+          <t>Nadia Yaqoob</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zubeda Yaqoob </t>
+          <t>Bano Fayaz</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Mahjbeen Kashif</t>
+          <t>Nazia�Aleem</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -626,17 +626,17 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Zenab Irshad</t>
+          <t>Fozia Tariq</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bisma Irshd </t>
+          <t>Hira Mansha</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Shugufta</t>
+          <t>Humera Shafiq</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Sobia</t>
+          <t>Hamna</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -704,7 +704,7 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -712,11 +712,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rifat Ahmad </t>
+          <t xml:space="preserve">Bisma Batool Amjad </t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -724,7 +724,7 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -732,11 +732,11 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Bano Fayaz</t>
+          <t xml:space="preserve">Shazia Haee </t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -752,11 +752,11 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Nazia�Aleem</t>
+          <t>Kosar Fatima</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -772,11 +772,11 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Fozia Tariq</t>
+          <t>Mohebba Safdar</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -784,7 +784,7 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -792,11 +792,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Hira Mansha</t>
+          <t>Musarat Afzal</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -812,11 +812,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Humera Shafiq</t>
+          <t xml:space="preserve">Afreen Yaqoob </t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -832,11 +832,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Hamna</t>
+          <t>Farah</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -852,11 +852,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bisma Batool Amjad </t>
+          <t>Shabana Baji</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -872,19 +872,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shazia Haee </t>
+          <t>Sadia Adnan</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
+          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -892,119 +892,119 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Kosar Fatima</t>
+          <t>Samina Fiaz</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
+          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Mohebba Safdar</t>
+          <t>Asma Jawed</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
+          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Musarat Afzal</t>
+          <t>Ayesha Mushtaq</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
+          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Afreen Yaqoob </t>
+          <t xml:space="preserve">Faryal Khadim Hussain </t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
+          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Farah</t>
+          <t>Sughra</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
+          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Shabana Baji</t>
+          <t>Rafia Khadim Hussain</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
+          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1012,11 +1012,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Sadia Adnan</t>
+          <t>Kalsoom</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1024,7 +1024,7 @@
           <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1032,11 +1032,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Samina Fiaz</t>
+          <t xml:space="preserve">Shantul Junaid </t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1046,17 +1046,17 @@
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Asma Jawed</t>
+          <t xml:space="preserve">Rubab Mir </t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1066,17 +1066,17 @@
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Ayesha Mushtaq</t>
+          <t>Saba Yasir</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1086,17 +1086,17 @@
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Faryal Khadim Hussain </t>
+          <t>Samina Nadeem</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1106,17 +1106,17 @@
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Sughra</t>
+          <t>Zoobi</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1126,17 +1126,17 @@
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Rafia Khadim Hussain</t>
+          <t>Zulekha Mirjat</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
           <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1152,19 +1152,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom</t>
+          <t xml:space="preserve">Alisha Kanwal </t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1172,19 +1172,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>1042</v>
+        <v>1049</v>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shantul Junaid </t>
+          <t xml:space="preserve">Ambreen Riaz </t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1192,19 +1192,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rubab Mir </t>
+          <t>Fozia Rafiq</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1212,19 +1212,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Saba Yasir</t>
+          <t>Anjeela Basharat</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1232,19 +1232,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Samina Nadeem</t>
+          <t xml:space="preserve">Asia Ijaz </t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1252,19 +1252,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Zoobi</t>
+          <t xml:space="preserve">Ayesha Ghulam </t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1272,19 +1272,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Zulekha Mirjat</t>
+          <t>Amna Rashid�</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1292,11 +1292,11 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>1048</v>
+        <v>1055</v>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alisha Kanwal </t>
+          <t xml:space="preserve">Bushra Farooq </t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
           <t>Amna Rafiq</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1312,11 +1312,11 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ambreen Riaz </t>
+          <t xml:space="preserve">Tahira Nazish Sgy </t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1324,7 +1324,7 @@
           <t>Amna Rafiq</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1332,11 +1332,11 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Fozia Rafiq</t>
+          <t>Hareem Altaf</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1344,7 +1344,7 @@
           <t>Amna Rafiq</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1352,11 +1352,11 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>1051</v>
+        <v>1058</v>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Anjeela Basharat</t>
+          <t>Amna Noor</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1364,7 +1364,7 @@
           <t>Amna Rafiq</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1372,11 +1372,11 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asia Ijaz </t>
+          <t>Falak Naaz</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1384,7 +1384,7 @@
           <t>Amna Rafiq</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1392,11 +1392,11 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>1053</v>
+        <v>1060</v>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ayesha Ghulam </t>
+          <t>Iqra Khalid</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1404,7 +1404,7 @@
           <t>Amna Rafiq</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1412,19 +1412,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Amna Rashid�</t>
+          <t xml:space="preserve">Mahnoor�Khadim Hussain </t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1432,19 +1432,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>1055</v>
+        <v>1062</v>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bushra Farooq </t>
+          <t xml:space="preserve">Farzana Nargis </t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1452,19 +1452,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tahira Nazish Sgy </t>
+          <t>Mubeena Munir</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1472,19 +1472,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Hareem Altaf</t>
+          <t>Zainab Faizan</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1492,19 +1492,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>1058</v>
+        <v>1065</v>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Amna Noor</t>
+          <t>Rukaya Riayaz</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1512,19 +1512,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Falak Naaz</t>
+          <t>Quratulain</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1532,19 +1532,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Iqra Khalid</t>
+          <t>Ume Hadia</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1552,11 +1552,11 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mahnoor�Khadim Hussain </t>
+          <t>Maliha Khalid</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1564,7 +1564,7 @@
           <t>Sadia Ismail</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1572,11 +1572,11 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farzana Nargis </t>
+          <t>Rahila Shoaib</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
           <t>Sadia Ismail</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1592,11 +1592,11 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Mubeena Munir</t>
+          <t>Sumera Kashif</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1604,7 +1604,7 @@
           <t>Sadia Ismail</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1612,11 +1612,11 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Zainab Faizan</t>
+          <t>Aisha Imran</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -1624,7 +1624,7 @@
           <t>Sadia Ismail</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1632,11 +1632,11 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Rukaya Riayaz</t>
+          <t>Samra Qasim</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1644,7 +1644,7 @@
           <t>Sadia Ismail</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="D60" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1652,11 +1652,11 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Quratulain</t>
+          <t>Nadia Gohar</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1664,7 +1664,7 @@
           <t>Sadia Ismail</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="D61" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1672,11 +1672,11 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Ume Hadia</t>
+          <t>Rani Raza</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1684,7 +1684,7 @@
           <t>Sadia Ismail</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr">
+      <c r="D62" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1692,11 +1692,11 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Maliha Khalid</t>
+          <t>Naseem Fida Hussain</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1704,7 +1704,7 @@
           <t>Sadia Ismail</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
+      <c r="D63" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1712,19 +1712,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Rahila Shoaib</t>
+          <t>Rahat Usman</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1732,19 +1732,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Sumera Kashif</t>
+          <t>Rehana Umer</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1752,19 +1752,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Aisha Imran</t>
+          <t xml:space="preserve">Sehar Abid </t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1772,19 +1772,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Samra Qasim</t>
+          <t>Shanza Sabir</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1792,19 +1792,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Nadia Gohar</t>
+          <t xml:space="preserve">Parwisha Raees </t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1812,19 +1812,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>Rani Raza</t>
+          <t>Shaziya Khatoon</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1832,19 +1832,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Naseem Fida Hussain</t>
+          <t>Huram Fatima</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1852,11 +1852,11 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Rahat Usman</t>
+          <t>Rifat Raza</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1864,7 +1864,7 @@
           <t>Eman Rafiq</t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="D71" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1872,11 +1872,11 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Rehana Umer</t>
+          <t>Mafiya Aslam</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -1884,7 +1884,7 @@
           <t>Eman Rafiq</t>
         </is>
       </c>
-      <c r="D72" s="3" t="inlineStr">
+      <c r="D72" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1892,11 +1892,11 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sehar Abid </t>
+          <t>Shakeela Taj</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1904,7 +1904,7 @@
           <t>Eman Rafiq</t>
         </is>
       </c>
-      <c r="D73" s="3" t="inlineStr">
+      <c r="D73" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1912,11 +1912,11 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Shanza Sabir</t>
+          <t>Tahira Tabassum</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1924,7 +1924,7 @@
           <t>Eman Rafiq</t>
         </is>
       </c>
-      <c r="D74" s="3" t="inlineStr">
+      <c r="D74" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1932,11 +1932,11 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parwisha Raees </t>
+          <t>Iqra Shahzaib</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1944,7 +1944,7 @@
           <t>Eman Rafiq</t>
         </is>
       </c>
-      <c r="D75" s="3" t="inlineStr">
+      <c r="D75" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1952,19 +1952,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Shaziya Khatoon</t>
+          <t>Tasheen Shahi</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1972,19 +1972,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Huram Fatima</t>
+          <t>Zahida Shahi</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1992,19 +1992,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Rifat Raza</t>
+          <t>Zenab Jamila</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2012,19 +2012,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Mafiya Aslam</t>
+          <t>Zoubiya Aqil</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2032,19 +2032,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Shakeela Taj</t>
+          <t>Zunaira Afzal</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2052,19 +2052,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Tahira Tabassum</t>
+          <t>Shiza Junaid</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2072,19 +2072,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Iqra Shahzaib</t>
+          <t xml:space="preserve">Naheed Kashif </t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2092,11 +2092,11 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Tasheen Shahi</t>
+          <t>Nazia Sattar</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -2104,7 +2104,7 @@
           <t>Savaira Gohar</t>
         </is>
       </c>
-      <c r="D83" s="3" t="inlineStr">
+      <c r="D83" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2112,11 +2112,11 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Zahida Shahi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -2124,7 +2124,7 @@
           <t>Savaira Gohar</t>
         </is>
       </c>
-      <c r="D84" s="3" t="inlineStr">
+      <c r="D84" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2132,11 +2132,11 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>Zenab Jamila</t>
+          <t xml:space="preserve">Amina Khatoon </t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -2144,7 +2144,7 @@
           <t>Savaira Gohar</t>
         </is>
       </c>
-      <c r="D85" s="3" t="inlineStr">
+      <c r="D85" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2152,11 +2152,11 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Zoubiya Aqil</t>
+          <t xml:space="preserve">Farah Hussain </t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -2164,7 +2164,7 @@
           <t>Savaira Gohar</t>
         </is>
       </c>
-      <c r="D86" s="3" t="inlineStr">
+      <c r="D86" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2172,11 +2172,11 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>1092</v>
+        <v>1099</v>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>Zunaira Afzal</t>
+          <t xml:space="preserve">Kiran Shahi </t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
           <t>Savaira Gohar</t>
         </is>
       </c>
-      <c r="D87" s="3" t="inlineStr">
+      <c r="D87" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2192,11 +2192,11 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Shiza Junaid</t>
+          <t xml:space="preserve">Faryal Qayyum </t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -2204,7 +2204,7 @@
           <t>Savaira Gohar</t>
         </is>
       </c>
-      <c r="D88" s="3" t="inlineStr">
+      <c r="D88" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2212,11 +2212,11 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naheed Kashif </t>
+          <t xml:space="preserve">Noreen Amjad </t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -2224,7 +2224,7 @@
           <t>Savaira Gohar</t>
         </is>
       </c>
-      <c r="D89" s="3" t="inlineStr">
+      <c r="D89" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2232,19 +2232,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Nazia Sattar</t>
+          <t>Amaira Rehman</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="inlineStr">
+          <t>Kalsoom Rasheed</t>
+        </is>
+      </c>
+      <c r="D90" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2252,19 +2252,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Amra Boota</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="inlineStr">
+          <t>Kalsoom Rasheed</t>
+        </is>
+      </c>
+      <c r="D91" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2272,19 +2272,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amina Khatoon </t>
+          <t>Andaleeb Nayar Azam</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
+          <t>Kalsoom Rasheed</t>
+        </is>
+      </c>
+      <c r="D92" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2292,19 +2292,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farah Hussain </t>
+          <t>Bushra Liaqat</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="inlineStr">
+          <t>Kalsoom Rasheed</t>
+        </is>
+      </c>
+      <c r="D93" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2312,19 +2312,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kiran Shahi </t>
+          <t>Dr.Fozia Naeem</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
+          <t>Kalsoom Rasheed</t>
+        </is>
+      </c>
+      <c r="D94" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2332,19 +2332,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Faryal Qayyum </t>
+          <t>Erum Rasheed</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="inlineStr">
+          <t>Kalsoom Rasheed</t>
+        </is>
+      </c>
+      <c r="D95" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2352,19 +2352,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noreen Amjad </t>
+          <t>Fariha Imran</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr">
+          <t>Kalsoom Rasheed</t>
+        </is>
+      </c>
+      <c r="D96" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2372,11 +2372,11 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>1102</v>
+        <v>1109</v>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Amaira Rehman</t>
+          <t>Farzana Jabbar</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2384,7 +2384,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D97" s="3" t="inlineStr">
+      <c r="D97" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2392,11 +2392,11 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Amra Boota</t>
+          <t>Hafsa Farooq</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2404,7 +2404,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D98" s="3" t="inlineStr">
+      <c r="D98" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2412,11 +2412,11 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>1104</v>
+        <v>1111</v>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>Andaleeb Nayar Azam</t>
+          <t xml:space="preserve">Muskan Aunti </t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2424,7 +2424,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D99" s="3" t="inlineStr">
+      <c r="D99" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2432,11 +2432,11 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>1105</v>
+        <v>1112</v>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Bushra Liaqat</t>
+          <t xml:space="preserve">Kousar Irfan </t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2444,7 +2444,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D100" s="3" t="inlineStr">
+      <c r="D100" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2452,11 +2452,11 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>Dr.Fozia Naeem</t>
+          <t>Kalsoom Aurangzaib</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -2464,7 +2464,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D101" s="3" t="inlineStr">
+      <c r="D101" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2472,11 +2472,11 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
+          <t>Maila Raina</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -2484,7 +2484,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D102" s="3" t="inlineStr">
+      <c r="D102" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2492,11 +2492,11 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>Fariha Imran</t>
+          <t>Malaika Bburt</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -2504,7 +2504,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D103" s="3" t="inlineStr">
+      <c r="D103" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2512,11 +2512,11 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>1109</v>
+        <v>1116</v>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Farzana Jabbar</t>
+          <t>Mehwish Mushtaq</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2524,7 +2524,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D104" s="3" t="inlineStr">
+      <c r="D104" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2532,11 +2532,11 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>1110</v>
+        <v>1117</v>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>Hafsa Farooq</t>
+          <t>Nadia Liaquat</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D105" s="3" t="inlineStr">
+      <c r="D105" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2552,11 +2552,11 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muskan Aunti </t>
+          <t>Nargis</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2564,7 +2564,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D106" s="3" t="inlineStr">
+      <c r="D106" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2572,11 +2572,11 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>1112</v>
+        <v>1119</v>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kousar Irfan </t>
+          <t>Nazia Norin</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2584,7 +2584,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D107" s="3" t="inlineStr">
+      <c r="D107" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2592,11 +2592,11 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>1113</v>
+        <v>1120</v>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Aurangzaib</t>
+          <t>Rimsha Bashir</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2604,7 +2604,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D108" s="3" t="inlineStr">
+      <c r="D108" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2612,11 +2612,11 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>1114</v>
+        <v>1121</v>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>Maila Raina</t>
+          <t>Sadia Ismail</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2624,7 +2624,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D109" s="3" t="inlineStr">
+      <c r="D109" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2632,11 +2632,11 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>1115</v>
+        <v>1122</v>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Malaika Bburt</t>
+          <t>Saima Wariyam</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -2644,7 +2644,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D110" s="3" t="inlineStr">
+      <c r="D110" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2652,11 +2652,11 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>1116</v>
+        <v>1123</v>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>Mehwish Mushtaq</t>
+          <t>Sakina Zakir</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2664,7 +2664,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D111" s="3" t="inlineStr">
+      <c r="D111" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2672,11 +2672,11 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Nadia Liaquat</t>
+          <t>Samina Farman</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2684,7 +2684,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D112" s="3" t="inlineStr">
+      <c r="D112" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2692,11 +2692,11 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>Nargis</t>
+          <t>Sana Manzoor</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2704,7 +2704,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D113" s="3" t="inlineStr">
+      <c r="D113" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2712,11 +2712,11 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>1119</v>
+        <v>1126</v>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Nazia Norin</t>
+          <t>Sana Shahbaz</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2724,7 +2724,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D114" s="3" t="inlineStr">
+      <c r="D114" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2732,11 +2732,11 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>1120</v>
+        <v>1127</v>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>Rimsha Bashir</t>
+          <t>Shagufta Ibrahim</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2744,7 +2744,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D115" s="3" t="inlineStr">
+      <c r="D115" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2752,11 +2752,11 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
+          <t>Shama Malik</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2764,7 +2764,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D116" s="3" t="inlineStr">
+      <c r="D116" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2772,11 +2772,11 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>1122</v>
+        <v>1129</v>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>Saima Wariyam</t>
+          <t xml:space="preserve">Sobia Imran </t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2784,7 +2784,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D117" s="3" t="inlineStr">
+      <c r="D117" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2792,11 +2792,11 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>Sakina Zakir</t>
+          <t xml:space="preserve">Tahira Sajjad </t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -2804,7 +2804,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D118" s="3" t="inlineStr">
+      <c r="D118" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2812,11 +2812,11 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>1124</v>
+        <v>1131</v>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>Samina Farman</t>
+          <t xml:space="preserve">Tayyaba Shahzadi </t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -2824,7 +2824,7 @@
           <t>Kalsoom Rasheed</t>
         </is>
       </c>
-      <c r="D119" s="3" t="inlineStr">
+      <c r="D119" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2832,19 +2832,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>Sana Manzoor</t>
+          <t>Tausif Anwar</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D120" s="3" t="inlineStr">
+          <t>Jamaal Ali / Hassan Abid</t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2852,19 +2852,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>Sana Shahbaz</t>
+          <t>Sabir Tarefdar</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D121" s="3" t="inlineStr">
+          <t>Jamaal Ali / Hassan Abid</t>
+        </is>
+      </c>
+      <c r="D121" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2872,19 +2872,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Shagufta Ibrahim</t>
+          <t xml:space="preserve">Sohab Afser </t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D122" s="3" t="inlineStr">
+          <t>Jamaal Ali / Hassan Abid</t>
+        </is>
+      </c>
+      <c r="D122" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2892,19 +2892,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>1128</v>
+        <v>1135</v>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>Shama Malik</t>
+          <t xml:space="preserve">Ashik Mondal </t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D123" s="3" t="inlineStr">
+          <t>Jamaal Ali / Hassan Abid</t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2912,19 +2912,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>1129</v>
+        <v>1136</v>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sobia Imran </t>
+          <t xml:space="preserve">Ibrar Ahmed </t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
+          <t>Jamaal Ali / Hassan Abid</t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2932,19 +2932,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>1130</v>
+        <v>1137</v>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tahira Sajjad </t>
+          <t xml:space="preserve">Sk Nazir Hussain </t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D125" s="3" t="inlineStr">
+          <t>Jamaal Ali / Hassan Abid</t>
+        </is>
+      </c>
+      <c r="D125" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2952,19 +2952,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>1131</v>
+        <v>1138</v>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tayyaba Shahzadi </t>
+          <t>Anwar Hussain</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D126" s="3" t="inlineStr">
+          <t>Jamaal Ali / Hassan Abid</t>
+        </is>
+      </c>
+      <c r="D126" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2972,11 +2972,11 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>Tausif Anwar</t>
+          <t xml:space="preserve">Zeeshan Shafique </t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -2984,7 +2984,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D127" s="3" t="inlineStr">
+      <c r="D127" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2992,11 +2992,11 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>Sabir Tarefdar</t>
+          <t>Mohammad Shahid Alam</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -3004,7 +3004,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D128" s="3" t="inlineStr">
+      <c r="D128" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3012,11 +3012,11 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sohab Afser </t>
+          <t>Mohammed Zainul Abedin Alam</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -3024,7 +3024,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D129" s="3" t="inlineStr">
+      <c r="D129" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3032,11 +3032,11 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>1135</v>
+        <v>1142</v>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ashik Mondal </t>
+          <t>Md Wasim</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -3044,7 +3044,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D130" s="3" t="inlineStr">
+      <c r="D130" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3052,11 +3052,11 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ibrar Ahmed </t>
+          <t>Mohammad Kaif</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -3064,7 +3064,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D131" s="3" t="inlineStr">
+      <c r="D131" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3072,11 +3072,11 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>1137</v>
+        <v>1144</v>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sk Nazir Hussain </t>
+          <t>Syed Zarar Mehdi</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -3084,7 +3084,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D132" s="3" t="inlineStr">
+      <c r="D132" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3092,11 +3092,11 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>1138</v>
+        <v>1145</v>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>Anwar Hussain</t>
+          <t xml:space="preserve">Tahir Shaikh </t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -3104,7 +3104,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D133" s="3" t="inlineStr">
+      <c r="D133" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3112,11 +3112,11 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>1139</v>
+        <v>1146</v>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zeeshan Shafique </t>
+          <t>Adnan Ahmad</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
@@ -3124,7 +3124,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D134" s="3" t="inlineStr">
+      <c r="D134" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3132,11 +3132,11 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>1140</v>
+        <v>1147</v>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>Mohammad Shahid Alam</t>
+          <t>Zulkar Nain</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
@@ -3144,7 +3144,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D135" s="3" t="inlineStr">
+      <c r="D135" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3152,11 +3152,11 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>1141</v>
+        <v>1148</v>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>Mohammed Zainul Abedin Alam</t>
+          <t xml:space="preserve">Zakir Hussain </t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
@@ -3164,7 +3164,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D136" s="3" t="inlineStr">
+      <c r="D136" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3172,11 +3172,11 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>1142</v>
+        <v>1149</v>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>Md Wasim</t>
+          <t>Md Serajul</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -3184,7 +3184,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D137" s="3" t="inlineStr">
+      <c r="D137" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3192,11 +3192,11 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>1143</v>
+        <v>1150</v>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>Mohammad Kaif</t>
+          <t>Md. Ziyaul</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
@@ -3204,7 +3204,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D138" s="3" t="inlineStr">
+      <c r="D138" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3212,11 +3212,11 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>1144</v>
+        <v>1151</v>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>Syed Zarar Mehdi</t>
+          <t>Faizul Haq</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
@@ -3224,7 +3224,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D139" s="3" t="inlineStr">
+      <c r="D139" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3232,11 +3232,11 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>1145</v>
+        <v>1152</v>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tahir Shaikh </t>
+          <t xml:space="preserve">Shahenshah Haidar </t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
@@ -3244,7 +3244,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D140" s="3" t="inlineStr">
+      <c r="D140" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3252,11 +3252,11 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>Adnan Ahmad</t>
+          <t xml:space="preserve">Md Shakil Khan </t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
@@ -3264,7 +3264,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D141" s="3" t="inlineStr">
+      <c r="D141" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3272,11 +3272,11 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>1147</v>
+        <v>1154</v>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>Zulkar Nain</t>
+          <t xml:space="preserve">Zahid Nazir </t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
@@ -3284,7 +3284,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D142" s="3" t="inlineStr">
+      <c r="D142" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3292,11 +3292,11 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>1148</v>
+        <v>1155</v>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zakir Hussain </t>
+          <t xml:space="preserve">Zahid Ansari </t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
@@ -3304,7 +3304,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D143" s="3" t="inlineStr">
+      <c r="D143" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3312,11 +3312,11 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>1149</v>
+        <v>1156</v>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>Md Serajul</t>
+          <t>Jamaal Ali</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
@@ -3324,7 +3324,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D144" s="3" t="inlineStr">
+      <c r="D144" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3332,11 +3332,11 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>1150</v>
+        <v>1157</v>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>Md. Ziyaul</t>
+          <t>Tanweer Hussain</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
@@ -3344,7 +3344,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D145" s="3" t="inlineStr">
+      <c r="D145" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3352,11 +3352,11 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>1151</v>
+        <v>1158</v>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>Faizul Haq</t>
+          <t>Sofi Alam Mallick</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -3364,7 +3364,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D146" s="3" t="inlineStr">
+      <c r="D146" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3372,11 +3372,11 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>1152</v>
+        <v>1159</v>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shahenshah Haidar </t>
+          <t>Shubhgautam</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
@@ -3384,7 +3384,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D147" s="3" t="inlineStr">
+      <c r="D147" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3392,11 +3392,11 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>1153</v>
+        <v>1160</v>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Md Shakil Khan </t>
+          <t>Faiz Gohar</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -3404,7 +3404,7 @@
           <t>Jamaal Ali / Hassan Abid</t>
         </is>
       </c>
-      <c r="D148" s="3" t="inlineStr">
+      <c r="D148" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3412,19 +3412,20 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>1154</v>
+        <v>1161</v>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zahid Nazir </t>
+          <t xml:space="preserve">Muhammad Yaseer
+</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D149" s="3" t="inlineStr">
+          <t>Erum Rasheed</t>
+        </is>
+      </c>
+      <c r="D149" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3432,19 +3433,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>1155</v>
+        <v>1162</v>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zahid Ansari </t>
+          <t>Muhammad Imtiaz</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D150" s="3" t="inlineStr">
+          <t>Erum Rasheed</t>
+        </is>
+      </c>
+      <c r="D150" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3452,19 +3453,20 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>1156</v>
+        <v>1163</v>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali</t>
+          <t xml:space="preserve">Ejaaz Ali
+</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D151" s="3" t="inlineStr">
+          <t>Erum Rasheed</t>
+        </is>
+      </c>
+      <c r="D151" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3472,19 +3474,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>1157</v>
+        <v>1164</v>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Tanweer Hussain</t>
+          <t>Hassan Abid Ali</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D152" s="3" t="inlineStr">
+          <t>Erum Rasheed</t>
+        </is>
+      </c>
+      <c r="D152" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3492,19 +3494,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>1158</v>
+        <v>1165</v>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>Sofi Alam Mallick</t>
+          <t>Shafiq Abid</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D153" s="3" t="inlineStr">
+          <t>Erum Rasheed</t>
+        </is>
+      </c>
+      <c r="D153" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3512,19 +3514,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>1159</v>
+        <v>1166</v>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>Shubhgautam</t>
+          <t xml:space="preserve">Ghulam Nabi </t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D154" s="3" t="inlineStr">
+          <t>Erum Rasheed</t>
+        </is>
+      </c>
+      <c r="D154" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3532,19 +3534,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>Faiz Gohar</t>
+          <t>Ataa Arshad</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D155" s="3" t="inlineStr">
+          <t>Erum Rasheed</t>
+        </is>
+      </c>
+      <c r="D155" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3552,12 +3554,11 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>1161</v>
+        <v>1168</v>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muhammad Yaseer
-</t>
+          <t>Abid Hussain</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
@@ -3565,7 +3566,7 @@
           <t>Erum Rasheed</t>
         </is>
       </c>
-      <c r="D156" s="3" t="inlineStr">
+      <c r="D156" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3573,11 +3574,11 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Imtiaz</t>
+          <t xml:space="preserve">Shahenshah Haidar </t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
@@ -3585,7 +3586,7 @@
           <t>Erum Rasheed</t>
         </is>
       </c>
-      <c r="D157" s="3" t="inlineStr">
+      <c r="D157" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3593,12 +3594,11 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>1163</v>
+        <v>1170</v>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ejaaz Ali
-</t>
+          <t>Saleem Siddiqui</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
@@ -3606,7 +3606,7 @@
           <t>Erum Rasheed</t>
         </is>
       </c>
-      <c r="D158" s="3" t="inlineStr">
+      <c r="D158" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3614,11 +3614,11 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>Hassan Abid Ali</t>
+          <t>Bilal Yaqoob Memon</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -3626,7 +3626,7 @@
           <t>Erum Rasheed</t>
         </is>
       </c>
-      <c r="D159" s="3" t="inlineStr">
+      <c r="D159" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3634,11 +3634,11 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>1165</v>
+        <v>1172</v>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>Shafiq Abid</t>
+          <t>Hamza Rocky</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -3646,7 +3646,7 @@
           <t>Erum Rasheed</t>
         </is>
       </c>
-      <c r="D160" s="3" t="inlineStr">
+      <c r="D160" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3654,11 +3654,11 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>1166</v>
+        <v>1173</v>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ghulam Nabi </t>
+          <t>Saad Khalid</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
@@ -3666,7 +3666,7 @@
           <t>Erum Rasheed</t>
         </is>
       </c>
-      <c r="D161" s="3" t="inlineStr">
+      <c r="D161" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3674,11 +3674,11 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>1167</v>
+        <v>1174</v>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>Ataa Arshad</t>
+          <t>Junaid</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
@@ -3686,7 +3686,7 @@
           <t>Erum Rasheed</t>
         </is>
       </c>
-      <c r="D162" s="3" t="inlineStr">
+      <c r="D162" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3694,11 +3694,11 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>1168</v>
+        <v>1175</v>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>Abid Hussain</t>
+          <t xml:space="preserve">Azeem Nadeem </t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
@@ -3706,7 +3706,7 @@
           <t>Erum Rasheed</t>
         </is>
       </c>
-      <c r="D163" s="3" t="inlineStr">
+      <c r="D163" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3714,11 +3714,11 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>1169</v>
+        <v>1176</v>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shahenshah Haidar </t>
+          <t>Athe Ansar</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
@@ -3726,7 +3726,7 @@
           <t>Erum Rasheed</t>
         </is>
       </c>
-      <c r="D164" s="3" t="inlineStr">
+      <c r="D164" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3734,19 +3734,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>Saleem Siddiqui</t>
+          <t xml:space="preserve">Shifa Shaikh  </t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D165" s="3" t="inlineStr">
+          <t>Sabreen Younus / Afaaf Khushhaaal</t>
+        </is>
+      </c>
+      <c r="D165" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3754,19 +3754,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>Bilal Yaqoob Memon</t>
+          <t xml:space="preserve">Mariam Khan </t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D166" s="3" t="inlineStr">
+          <t>Sabreen Younus / Afaaf Khushhaaal</t>
+        </is>
+      </c>
+      <c r="D166" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3774,19 +3774,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>1172</v>
+        <v>1179</v>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>Hamza Rocky</t>
+          <t xml:space="preserve">Urujj </t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D167" s="3" t="inlineStr">
+          <t>Sabreen Younus / Afaaf Khushhaaal</t>
+        </is>
+      </c>
+      <c r="D167" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3794,19 +3794,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>1173</v>
+        <v>1180</v>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>Saad Khalid</t>
+          <t>Tahaseenn</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D168" s="3" t="inlineStr">
+          <t>Sabreen Younus / Afaaf Khushhaaal</t>
+        </is>
+      </c>
+      <c r="D168" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3814,19 +3814,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>Junaid</t>
+          <t>Afaaf Khushhaal</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D169" s="3" t="inlineStr">
+          <t>Sabreen Younus / Afaaf Khushhaaal</t>
+        </is>
+      </c>
+      <c r="D169" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3834,19 +3834,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>1175</v>
+        <v>1182</v>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azeem Nadeem </t>
+          <t xml:space="preserve">Iram Jamal  </t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D170" s="3" t="inlineStr">
+          <t>Sabreen Younus / Afaaf Khushhaaal</t>
+        </is>
+      </c>
+      <c r="D170" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3854,19 +3854,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>1176</v>
+        <v>1183</v>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>Athe Ansar</t>
+          <t xml:space="preserve">Nusrat Bhat </t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D171" s="3" t="inlineStr">
+          <t>Sabreen Younus / Afaaf Khushhaaal</t>
+        </is>
+      </c>
+      <c r="D171" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3874,11 +3874,11 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>1177</v>
+        <v>1184</v>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shifa Shaikh  </t>
+          <t xml:space="preserve">Najma Arif </t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
@@ -3886,7 +3886,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D172" s="3" t="inlineStr">
+      <c r="D172" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3894,11 +3894,11 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>1178</v>
+        <v>1185</v>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mariam Khan </t>
+          <t>Sana Jamal</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
@@ -3906,7 +3906,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D173" s="3" t="inlineStr">
+      <c r="D173" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3914,11 +3914,11 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>1179</v>
+        <v>1186</v>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Urujj </t>
+          <t>Syeda Sabina Malik Asaam</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
@@ -3926,7 +3926,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D174" s="3" t="inlineStr">
+      <c r="D174" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3934,11 +3934,11 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>1180</v>
+        <v>1187</v>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>Tahaseenn</t>
+          <t xml:space="preserve">Rukaya Riaz </t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
@@ -3946,7 +3946,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D175" s="3" t="inlineStr">
+      <c r="D175" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3954,11 +3954,11 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>1181</v>
+        <v>1188</v>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>Afaaf Khushhaal</t>
+          <t>Sakina Bano</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
@@ -3966,7 +3966,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D176" s="3" t="inlineStr">
+      <c r="D176" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3974,11 +3974,11 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>1182</v>
+        <v>1189</v>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Iram Jamal  </t>
+          <t>Sakila Younus</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
@@ -3986,7 +3986,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D177" s="3" t="inlineStr">
+      <c r="D177" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3994,11 +3994,11 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>1183</v>
+        <v>1190</v>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nusrat Bhat </t>
+          <t xml:space="preserve">Jasmin Younus </t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -4006,7 +4006,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D178" s="3" t="inlineStr">
+      <c r="D178" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4014,11 +4014,11 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>1184</v>
+        <v>1191</v>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Najma Arif </t>
+          <t>Taiyaba Farooq Memon</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
@@ -4026,7 +4026,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D179" s="3" t="inlineStr">
+      <c r="D179" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4034,11 +4034,11 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>1185</v>
+        <v>1192</v>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>Sana Jamal</t>
+          <t xml:space="preserve">Farhat Riaz </t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -4046,7 +4046,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D180" s="3" t="inlineStr">
+      <c r="D180" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4054,11 +4054,11 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>1186</v>
+        <v>1193</v>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>Syeda Sabina Malik Asaam</t>
+          <t xml:space="preserve">Saniya Arif Gohar </t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -4066,7 +4066,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D181" s="3" t="inlineStr">
+      <c r="D181" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4074,11 +4074,11 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>1187</v>
+        <v>1194</v>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rukaya Riaz </t>
+          <t>Haseena Khan</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -4086,7 +4086,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D182" s="3" t="inlineStr">
+      <c r="D182" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4094,11 +4094,11 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>1188</v>
+        <v>1195</v>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>Sakina Bano</t>
+          <t xml:space="preserve">Tamanna Firdaus </t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -4106,7 +4106,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D183" s="3" t="inlineStr">
+      <c r="D183" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4114,11 +4114,11 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>1189</v>
+        <v>1196</v>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>Sakila Younus</t>
+          <t>Sapna Patel</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
@@ -4126,7 +4126,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D184" s="3" t="inlineStr">
+      <c r="D184" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4134,11 +4134,11 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>1190</v>
+        <v>1197</v>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jasmin Younus </t>
+          <t>Sunaina Gohar</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
@@ -4146,7 +4146,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D185" s="3" t="inlineStr">
+      <c r="D185" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4154,11 +4154,11 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>1191</v>
+        <v>1198</v>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>Taiyaba Farooq Memon</t>
+          <t>Rasida Parween</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
@@ -4166,7 +4166,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D186" s="3" t="inlineStr">
+      <c r="D186" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4174,11 +4174,11 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>1192</v>
+        <v>1199</v>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farhat Riaz </t>
+          <t>Aksha Gohar</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -4186,7 +4186,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D187" s="3" t="inlineStr">
+      <c r="D187" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4194,11 +4194,11 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>1193</v>
+        <v>1200</v>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saniya Arif Gohar </t>
+          <t xml:space="preserve">Fizaa Gohar </t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -4206,7 +4206,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D188" s="3" t="inlineStr">
+      <c r="D188" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4214,11 +4214,11 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>1194</v>
+        <v>1201</v>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>Haseena Khan</t>
+          <t xml:space="preserve">Zeba Ansari </t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -4226,7 +4226,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D189" s="3" t="inlineStr">
+      <c r="D189" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4234,11 +4234,11 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>1195</v>
+        <v>1202</v>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamanna Firdaus </t>
+          <t>Sufya Shahadat</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
@@ -4246,7 +4246,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D190" s="3" t="inlineStr">
+      <c r="D190" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4254,11 +4254,11 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>1196</v>
+        <v>1203</v>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>Sapna Patel</t>
+          <t>Zakir Hussain</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
@@ -4266,7 +4266,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D191" s="3" t="inlineStr">
+      <c r="D191" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4274,11 +4274,11 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>1197</v>
+        <v>1204</v>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>Sunaina Gohar</t>
+          <t>Hamdiya Kazim</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
@@ -4286,7 +4286,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D192" s="3" t="inlineStr">
+      <c r="D192" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4294,11 +4294,11 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>1198</v>
+        <v>1205</v>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>Rasida Parween</t>
+          <t xml:space="preserve">Zenab </t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
@@ -4306,7 +4306,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D193" s="3" t="inlineStr">
+      <c r="D193" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4314,11 +4314,12 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>1199</v>
+        <v>1206</v>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>Aksha Gohar</t>
+          <t xml:space="preserve">Shabnam Alam
+</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
@@ -4326,7 +4327,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D194" s="3" t="inlineStr">
+      <c r="D194" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4334,11 +4335,12 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fizaa Gohar </t>
+          <t xml:space="preserve">Sufiya Alam
+</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
@@ -4346,7 +4348,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D195" s="3" t="inlineStr">
+      <c r="D195" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4354,11 +4356,11 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>1201</v>
+        <v>1208</v>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zeba Ansari </t>
+          <t xml:space="preserve">Lubeena Mehmood </t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
@@ -4366,7 +4368,7 @@
           <t>Sabreen Younus / Afaaf Khushhaaal</t>
         </is>
       </c>
-      <c r="D196" s="3" t="inlineStr">
+      <c r="D196" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4374,19 +4376,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>Sufya Shahadat</t>
+          <t>Mishaal Farhan</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D197" s="3" t="inlineStr">
+          <t>Kanwal Farhan</t>
+        </is>
+      </c>
+      <c r="D197" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4394,19 +4396,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>1203</v>
+        <v>1210</v>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>Zakir Hussain</t>
+          <t xml:space="preserve"> Raza Farhan</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D198" s="3" t="inlineStr">
+          <t>Kanwal Farhan</t>
+        </is>
+      </c>
+      <c r="D198" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4414,19 +4416,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>1204</v>
+        <v>1211</v>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>Hamdiya Kazim</t>
+          <t>Muhammad Farhan�</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D199" s="3" t="inlineStr">
+          <t>Kanwal Farhan</t>
+        </is>
+      </c>
+      <c r="D199" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4434,19 +4436,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>1205</v>
+        <v>1212</v>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zenab </t>
+          <t>Ishmal Furqan</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D200" s="3" t="inlineStr">
+          <t>Kanwal Farhan</t>
+        </is>
+      </c>
+      <c r="D200" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4454,20 +4456,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>1206</v>
+        <v>1213</v>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shabnam Alam
-</t>
+          <t>Areeba Furqan</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D201" s="3" t="inlineStr">
+          <t>Kanwal Farhan</t>
+        </is>
+      </c>
+      <c r="D201" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4475,20 +4476,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>1207</v>
+        <v>1214</v>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sufiya Alam
-</t>
+          <t xml:space="preserve">Syeda Samia Gohar </t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D202" s="3" t="inlineStr">
+          <t>Kanwal Farhan</t>
+        </is>
+      </c>
+      <c r="D202" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4496,19 +4496,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>1208</v>
+        <v>1215</v>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lubeena Mehmood </t>
+          <t xml:space="preserve">Anoosha Furqan </t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D203" s="3" t="inlineStr">
+          <t>Kanwal Farhan</t>
+        </is>
+      </c>
+      <c r="D203" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4516,11 +4516,11 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>1209</v>
+        <v>1216</v>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>Mishaal Farhan</t>
+          <t>Sumair Naeem</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
@@ -4528,7 +4528,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D204" s="3" t="inlineStr">
+      <c r="D204" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4536,11 +4536,11 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raza Farhan</t>
+          <t>Naveera Farhan</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
@@ -4548,7 +4548,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D205" s="3" t="inlineStr">
+      <c r="D205" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4556,11 +4556,11 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>1211</v>
+        <v>1218</v>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Farhan�</t>
+          <t>Areesha Furqan</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
@@ -4568,7 +4568,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D206" s="3" t="inlineStr">
+      <c r="D206" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4576,11 +4576,11 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>1212</v>
+        <v>1219</v>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>Ishmal Furqan</t>
+          <t xml:space="preserve">Farkhunda Saleem </t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
@@ -4588,7 +4588,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D207" s="3" t="inlineStr">
+      <c r="D207" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4596,11 +4596,11 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>1213</v>
+        <v>1220</v>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>Areeba Furqan</t>
+          <t>Tamanna Firdaus</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -4608,7 +4608,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D208" s="3" t="inlineStr">
+      <c r="D208" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4616,11 +4616,11 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>1214</v>
+        <v>1221</v>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syeda Samia Gohar </t>
+          <t>Afreen Kamal</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
@@ -4628,7 +4628,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D209" s="3" t="inlineStr">
+      <c r="D209" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4636,11 +4636,11 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>1215</v>
+        <v>1222</v>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anoosha Furqan </t>
+          <t>Noushaba Gohar</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
@@ -4648,7 +4648,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D210" s="3" t="inlineStr">
+      <c r="D210" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4656,11 +4656,11 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>Sumair Naeem</t>
+          <t xml:space="preserve">Minaz Khanum </t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
@@ -4668,7 +4668,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D211" s="3" t="inlineStr">
+      <c r="D211" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4676,11 +4676,11 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>1217</v>
+        <v>1224</v>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>Naveera Farhan</t>
+          <t>Shabnam Bano</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
@@ -4688,7 +4688,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D212" s="3" t="inlineStr">
+      <c r="D212" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4696,11 +4696,11 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>1218</v>
+        <v>1225</v>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>Areesha Furqan</t>
+          <t xml:space="preserve">Kanwal Farhan  </t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
@@ -4708,7 +4708,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D213" s="3" t="inlineStr">
+      <c r="D213" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4716,19 +4716,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>1219</v>
+        <v>1226</v>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farkhunda Saleem </t>
+          <t xml:space="preserve">Sumair Aslam </t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
-        </is>
-      </c>
-      <c r="D214" s="3" t="inlineStr">
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D214" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4736,19 +4736,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>1220</v>
+        <v>1227</v>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>Tamanna Firdaus</t>
+          <t>Rownak Jahan</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
-        </is>
-      </c>
-      <c r="D215" s="3" t="inlineStr">
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D215" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4756,19 +4756,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>1221</v>
+        <v>1228</v>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>Afreen Kamal</t>
+          <t>Fayzul Karim</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
-        </is>
-      </c>
-      <c r="D216" s="3" t="inlineStr">
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D216" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4776,19 +4776,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>1222</v>
+        <v>1229</v>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>Noushaba Gohar</t>
+          <t>Rasel Kabir</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
-        </is>
-      </c>
-      <c r="D217" s="3" t="inlineStr">
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D217" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4796,19 +4796,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>1223</v>
+        <v>1230</v>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Minaz Khanum </t>
+          <t>Farhana Islam</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
-        </is>
-      </c>
-      <c r="D218" s="3" t="inlineStr">
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D218" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4816,19 +4816,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>1224</v>
+        <v>1231</v>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>Shabnam Bano</t>
+          <t>Maria Gohar</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
-        </is>
-      </c>
-      <c r="D219" s="3" t="inlineStr">
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D219" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4836,19 +4836,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>1225</v>
+        <v>1232</v>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kanwal Farhan  </t>
+          <t>Md Firdous</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
-        </is>
-      </c>
-      <c r="D220" s="3" t="inlineStr">
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D220" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4856,11 +4856,11 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>1226</v>
+        <v>1233</v>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sumair Aslam </t>
+          <t>Al Amin Gohar</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
@@ -4868,7 +4868,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D221" s="3" t="inlineStr">
+      <c r="D221" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4876,11 +4876,11 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>1227</v>
+        <v>1234</v>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>Rownak Jahan</t>
+          <t xml:space="preserve">Beauty Rani </t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
@@ -4888,7 +4888,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D222" s="3" t="inlineStr">
+      <c r="D222" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4896,11 +4896,11 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>1228</v>
+        <v>1235</v>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>Fayzul Karim</t>
+          <t>Tarin Tara</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
@@ -4908,7 +4908,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D223" s="3" t="inlineStr">
+      <c r="D223" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4916,11 +4916,11 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>1229</v>
+        <v>1236</v>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>Rasel Kabir</t>
+          <t>Moon Afsana</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
@@ -4928,7 +4928,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D224" s="3" t="inlineStr">
+      <c r="D224" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4936,11 +4936,11 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>1230</v>
+        <v>1237</v>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>Farhana Islam</t>
+          <t>Asia Akter</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -4948,7 +4948,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D225" s="3" t="inlineStr">
+      <c r="D225" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4956,11 +4956,11 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>1231</v>
+        <v>1238</v>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>Maria Gohar</t>
+          <t>Masuma Akter</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -4968,7 +4968,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D226" s="3" t="inlineStr">
+      <c r="D226" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4976,11 +4976,11 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>1232</v>
+        <v>1239</v>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>Md Firdous</t>
+          <t>Runa Akter</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
@@ -4988,7 +4988,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D227" s="3" t="inlineStr">
+      <c r="D227" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4996,11 +4996,11 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>1233</v>
+        <v>1240</v>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>Al Amin Gohar</t>
+          <t>Bushra Khatun</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
@@ -5008,7 +5008,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D228" s="3" t="inlineStr">
+      <c r="D228" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5016,11 +5016,11 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>1234</v>
+        <v>1241</v>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beauty Rani </t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
@@ -5028,7 +5028,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D229" s="3" t="inlineStr">
+      <c r="D229" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5036,11 +5036,11 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>1235</v>
+        <v>1242</v>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>Tarin Tara</t>
+          <t>Rina Akter</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
@@ -5048,7 +5048,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D230" s="3" t="inlineStr">
+      <c r="D230" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5056,11 +5056,11 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>1236</v>
+        <v>1243</v>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>Moon Afsana</t>
+          <t>Shanta Akter</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
@@ -5068,7 +5068,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D231" s="3" t="inlineStr">
+      <c r="D231" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5076,11 +5076,11 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>1237</v>
+        <v>1244</v>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>Asia Akter</t>
+          <t>Mahatarima Hashi</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
@@ -5088,7 +5088,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D232" s="3" t="inlineStr">
+      <c r="D232" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5096,11 +5096,11 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>1238</v>
+        <v>1245</v>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>Masuma Akter</t>
+          <t>Atif Ahmad</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
@@ -5108,7 +5108,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D233" s="3" t="inlineStr">
+      <c r="D233" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5116,11 +5116,11 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>1239</v>
+        <v>1246</v>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>Runa Akter</t>
+          <t xml:space="preserve">Shamima Nasrin </t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
@@ -5128,7 +5128,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D234" s="3" t="inlineStr">
+      <c r="D234" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5136,11 +5136,11 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>1240</v>
+        <v>1247</v>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>Bushra Khatun</t>
+          <t xml:space="preserve">Sultana Razia </t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
@@ -5148,7 +5148,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D235" s="3" t="inlineStr">
+      <c r="D235" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5156,19 +5156,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>1241</v>
+        <v>1248</v>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">Riaz Ul Islam </t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>Afsha Khatun</t>
-        </is>
-      </c>
-      <c r="D236" s="3" t="inlineStr">
+      <c r="D236" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5176,11 +5176,11 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>1242</v>
+        <v>1249</v>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>Rina Akter</t>
+          <t xml:space="preserve">Nazrin Rumi </t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
@@ -5188,7 +5188,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D237" s="3" t="inlineStr">
+      <c r="D237" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5196,11 +5196,11 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>1243</v>
+        <v>1250</v>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>Shanta Akter</t>
+          <t>Shahadat Hossain</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -5208,7 +5208,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D238" s="3" t="inlineStr">
+      <c r="D238" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5216,11 +5216,11 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>1244</v>
+        <v>1251</v>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>Mahatarima Hashi</t>
+          <t xml:space="preserve">Seema Islam </t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
@@ -5228,7 +5228,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D239" s="3" t="inlineStr">
+      <c r="D239" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5236,11 +5236,11 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>1245</v>
+        <v>1252</v>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>Atif Ahmad</t>
+          <t>Doly Islam</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
@@ -5248,7 +5248,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D240" s="3" t="inlineStr">
+      <c r="D240" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5256,11 +5256,11 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>1246</v>
+        <v>1253</v>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shamima Nasrin </t>
+          <t xml:space="preserve">Md Rafi Uddin </t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
@@ -5268,7 +5268,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D241" s="3" t="inlineStr">
+      <c r="D241" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5276,11 +5276,11 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>1247</v>
+        <v>1254</v>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sultana Razia </t>
+          <t>Kabirul Islam</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
@@ -5288,7 +5288,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D242" s="3" t="inlineStr">
+      <c r="D242" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5296,11 +5296,11 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>1248</v>
+        <v>1255</v>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riaz Ul Islam </t>
+          <t>Joytara Bibi</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
@@ -5308,7 +5308,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D243" s="3" t="inlineStr">
+      <c r="D243" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5316,11 +5316,11 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>1249</v>
+        <v>1256</v>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nazrin Rumi </t>
+          <t>Md Zane Alam</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
@@ -5328,7 +5328,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D244" s="3" t="inlineStr">
+      <c r="D244" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5336,11 +5336,11 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>1250</v>
+        <v>1257</v>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>Shahadat Hossain</t>
+          <t>Shamima Aktar</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
@@ -5348,7 +5348,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D245" s="3" t="inlineStr">
+      <c r="D245" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5356,11 +5356,11 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>1251</v>
+        <v>1258</v>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seema Islam </t>
+          <t xml:space="preserve">Azizul Haque </t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
@@ -5368,7 +5368,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D246" s="3" t="inlineStr">
+      <c r="D246" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5376,11 +5376,11 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>Doly Islam</t>
+          <t>Fouzia Karim</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
@@ -5388,7 +5388,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D247" s="3" t="inlineStr">
+      <c r="D247" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5396,11 +5396,11 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>1253</v>
+        <v>1260</v>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Md Rafi Uddin </t>
+          <t>Zannatun  Nahar</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
@@ -5408,7 +5408,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D248" s="3" t="inlineStr">
+      <c r="D248" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5416,11 +5416,11 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>1254</v>
+        <v>1261</v>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>Kabirul Islam</t>
+          <t>Selina Nasrin</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
@@ -5428,7 +5428,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D249" s="3" t="inlineStr">
+      <c r="D249" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5436,11 +5436,11 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>1255</v>
+        <v>1262</v>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>Joytara Bibi</t>
+          <t xml:space="preserve">Mousumi </t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -5448,7 +5448,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D250" s="3" t="inlineStr">
+      <c r="D250" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5456,11 +5456,11 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>1256</v>
+        <v>1263</v>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>Md Zane Alam</t>
+          <t>Monalisa</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
@@ -5468,7 +5468,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D251" s="3" t="inlineStr">
+      <c r="D251" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5476,11 +5476,11 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>Shamima Aktar</t>
+          <t>Shapla Shapu</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
@@ -5488,7 +5488,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D252" s="3" t="inlineStr">
+      <c r="D252" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5496,11 +5496,11 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>1258</v>
+        <v>1265</v>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azizul Haque </t>
+          <t xml:space="preserve">Fateema Sayma </t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
@@ -5508,7 +5508,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D253" s="3" t="inlineStr">
+      <c r="D253" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5516,11 +5516,11 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>1259</v>
+        <v>1266</v>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>Fouzia Karim</t>
+          <t xml:space="preserve">Fateema Sidratul Muntaha </t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
@@ -5528,7 +5528,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D254" s="3" t="inlineStr">
+      <c r="D254" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5536,11 +5536,11 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>1260</v>
+        <v>1267</v>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>Zannatun  Nahar</t>
+          <t>Jannatun Nila</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
@@ -5548,7 +5548,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D255" s="3" t="inlineStr">
+      <c r="D255" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5556,11 +5556,11 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>1261</v>
+        <v>1268</v>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>Selina Nasrin</t>
+          <t>Taslima Rashid</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
@@ -5568,7 +5568,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D256" s="3" t="inlineStr">
+      <c r="D256" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5576,11 +5576,11 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>1262</v>
+        <v>1269</v>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mousumi </t>
+          <t>Afrina Arpi</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
@@ -5588,7 +5588,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D257" s="3" t="inlineStr">
+      <c r="D257" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5596,11 +5596,11 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>1263</v>
+        <v>1270</v>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>Monalisa</t>
+          <t>Turjo Armania</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
@@ -5608,7 +5608,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D258" s="3" t="inlineStr">
+      <c r="D258" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5616,11 +5616,11 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>1264</v>
+        <v>1271</v>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>Shapla Shapu</t>
+          <t>Mobarok Hossain</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
@@ -5628,7 +5628,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D259" s="3" t="inlineStr">
+      <c r="D259" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5636,11 +5636,11 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fateema Sayma </t>
+          <t>Haieder Ali</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
@@ -5648,7 +5648,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D260" s="3" t="inlineStr">
+      <c r="D260" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5656,11 +5656,11 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>1266</v>
+        <v>1273</v>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fateema Sidratul Muntaha </t>
+          <t>Samsul Alam</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
@@ -5668,7 +5668,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D261" s="3" t="inlineStr">
+      <c r="D261" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5676,11 +5676,11 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>1267</v>
+        <v>1274</v>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>Jannatun Nila</t>
+          <t>Firoj Nazrul</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
@@ -5688,7 +5688,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D262" s="3" t="inlineStr">
+      <c r="D262" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5696,11 +5696,11 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>1268</v>
+        <v>1275</v>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>Taslima Rashid</t>
+          <t>Nadim</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
@@ -5708,7 +5708,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D263" s="3" t="inlineStr">
+      <c r="D263" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5716,11 +5716,11 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>1269</v>
+        <v>1276</v>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>Afrina Arpi</t>
+          <t xml:space="preserve">Rukshana Pervin </t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
@@ -5728,7 +5728,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D264" s="3" t="inlineStr">
+      <c r="D264" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5736,11 +5736,11 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>1270</v>
+        <v>1277</v>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>Turjo Armania</t>
+          <t>Ruhul Amin</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
@@ -5748,7 +5748,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D265" s="3" t="inlineStr">
+      <c r="D265" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5756,11 +5756,11 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>1271</v>
+        <v>1278</v>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>Mobarok Hossain</t>
+          <t>Fuljuri Khatun</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
@@ -5768,7 +5768,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D266" s="3" t="inlineStr">
+      <c r="D266" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5776,11 +5776,11 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>1272</v>
+        <v>1279</v>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>Haieder Ali</t>
+          <t>Tajmira Islam</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
@@ -5788,7 +5788,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D267" s="3" t="inlineStr">
+      <c r="D267" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5796,11 +5796,11 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>1273</v>
+        <v>1280</v>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>Samsul Alam</t>
+          <t>Mizanur Rahman</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
@@ -5808,7 +5808,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D268" s="3" t="inlineStr">
+      <c r="D268" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5816,11 +5816,11 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>1274</v>
+        <v>1281</v>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>Firoj Nazrul</t>
+          <t>Sabbir Reza</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
@@ -5828,7 +5828,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D269" s="3" t="inlineStr">
+      <c r="D269" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5836,11 +5836,11 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>1275</v>
+        <v>1282</v>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>Nadim</t>
+          <t>Md Ariful Islm</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
@@ -5848,7 +5848,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D270" s="3" t="inlineStr">
+      <c r="D270" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5856,11 +5856,11 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>1276</v>
+        <v>1283</v>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rukshana Pervin </t>
+          <t>Polash Mahmud</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
@@ -5868,7 +5868,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D271" s="3" t="inlineStr">
+      <c r="D271" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5876,11 +5876,11 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>Ruhul Amin</t>
+          <t>Sabina Khatun</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
@@ -5888,7 +5888,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D272" s="3" t="inlineStr">
+      <c r="D272" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5896,19 +5896,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>Fuljuri Khatun</t>
+          <t xml:space="preserve">Aazma Farooq </t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
-        </is>
-      </c>
-      <c r="D273" s="3" t="inlineStr">
+          <t>Kaneez Fatima</t>
+        </is>
+      </c>
+      <c r="D273" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5916,19 +5916,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>1279</v>
+        <v>1286</v>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>Tajmira Islam</t>
+          <t xml:space="preserve">Madiha Siddiqui </t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
-        </is>
-      </c>
-      <c r="D274" s="3" t="inlineStr">
+          <t>Kaneez Fatima</t>
+        </is>
+      </c>
+      <c r="D274" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5936,19 +5936,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>1280</v>
+        <v>1287</v>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>Mizanur Rahman</t>
+          <t xml:space="preserve">Shakeela Mudasir </t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
-        </is>
-      </c>
-      <c r="D275" s="3" t="inlineStr">
+          <t>Kaneez Fatima</t>
+        </is>
+      </c>
+      <c r="D275" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5956,19 +5956,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>1281</v>
+        <v>1288</v>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>Sabbir Reza</t>
+          <t>Gautam</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
-        </is>
-      </c>
-      <c r="D276" s="3" t="inlineStr">
+          <t>Kaneez Fatima</t>
+        </is>
+      </c>
+      <c r="D276" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5976,19 +5976,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>1282</v>
+        <v>1289</v>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>Md Ariful Islm</t>
+          <t>Kanwal�Farhan</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
-        </is>
-      </c>
-      <c r="D277" s="3" t="inlineStr">
+          <t>Kaneez Fatima</t>
+        </is>
+      </c>
+      <c r="D277" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5996,19 +5996,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>1283</v>
+        <v>1290</v>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>Polash Mahmud</t>
+          <t xml:space="preserve">Amna Rafiq </t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
-        </is>
-      </c>
-      <c r="D278" s="3" t="inlineStr">
+          <t>Kaneez Fatima</t>
+        </is>
+      </c>
+      <c r="D278" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6016,19 +6016,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>1284</v>
+        <v>1291</v>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>Sabina Khatun</t>
+          <t>Mahrukh Irfan Gohar</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
-        </is>
-      </c>
-      <c r="D279" s="3" t="inlineStr">
+          <t>Kaneez Fatima</t>
+        </is>
+      </c>
+      <c r="D279" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6036,11 +6036,11 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>1285</v>
+        <v>1292</v>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aazma Farooq </t>
+          <t>Shazia A.Razaq</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
@@ -6048,7 +6048,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D280" s="3" t="inlineStr">
+      <c r="D280" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6056,11 +6056,11 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>1286</v>
+        <v>1293</v>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madiha Siddiqui </t>
+          <t>Samina Wahab</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -6068,7 +6068,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D281" s="3" t="inlineStr">
+      <c r="D281" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6076,11 +6076,12 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>1287</v>
+        <v>1294</v>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shakeela Mudasir </t>
+          <t xml:space="preserve">Shahenshah Haidar 
+</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
@@ -6088,7 +6089,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D282" s="3" t="inlineStr">
+      <c r="D282" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6096,11 +6097,11 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>1288</v>
+        <v>1295</v>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>Gautam</t>
+          <t xml:space="preserve">Yasmeen Abid </t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
@@ -6108,7 +6109,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D283" s="3" t="inlineStr">
+      <c r="D283" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6116,11 +6117,11 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>Kanwal�Farhan</t>
+          <t xml:space="preserve">Ashfaque </t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
@@ -6128,7 +6129,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D284" s="3" t="inlineStr">
+      <c r="D284" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6136,11 +6137,11 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>1290</v>
+        <v>1297</v>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amna Rafiq </t>
+          <t>Ali Gohar</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
@@ -6148,7 +6149,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D285" s="3" t="inlineStr">
+      <c r="D285" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6156,11 +6157,11 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>1291</v>
+        <v>1298</v>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan Gohar</t>
+          <t>Memona Rizvi</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
@@ -6168,7 +6169,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D286" s="3" t="inlineStr">
+      <c r="D286" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6176,11 +6177,11 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>1292</v>
+        <v>1299</v>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>Shazia A.Razaq</t>
+          <t>Qamar Un Nisa</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
@@ -6188,7 +6189,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D287" s="3" t="inlineStr">
+      <c r="D287" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6196,11 +6197,11 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>1293</v>
+        <v>1300</v>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>Samina Wahab</t>
+          <t>Aneela Memon</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
@@ -6208,7 +6209,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D288" s="3" t="inlineStr">
+      <c r="D288" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6216,20 +6217,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>1294</v>
+        <v>1301</v>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shahenshah Haidar 
-</t>
+          <t xml:space="preserve">Reshma Khan </t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
-        </is>
-      </c>
-      <c r="D289" s="3" t="inlineStr">
+          <t>Mahrukh Irfan/Amirah</t>
+        </is>
+      </c>
+      <c r="D289" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6237,19 +6237,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>1295</v>
+        <v>1302</v>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yasmeen Abid </t>
+          <t xml:space="preserve">Firdaush Khan </t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
-        </is>
-      </c>
-      <c r="D290" s="3" t="inlineStr">
+          <t>Mahrukh Irfan/Amirah</t>
+        </is>
+      </c>
+      <c r="D290" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6257,19 +6257,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>1296</v>
+        <v>1303</v>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ashfaque </t>
+          <t>Noor Jahan</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
-        </is>
-      </c>
-      <c r="D291" s="3" t="inlineStr">
+          <t>Mahrukh Irfan/Amirah</t>
+        </is>
+      </c>
+      <c r="D291" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6277,19 +6277,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>1297</v>
+        <v>1304</v>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>Ali Gohar</t>
+          <t xml:space="preserve">Rabeka Khanam </t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
-        </is>
-      </c>
-      <c r="D292" s="3" t="inlineStr">
+          <t>Mahrukh Irfan/Amirah</t>
+        </is>
+      </c>
+      <c r="D292" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6297,19 +6297,20 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>1298</v>
+        <v>1305</v>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>Memona Rizvi</t>
+          <t xml:space="preserve">Shamsheeda Bughum
+</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
-        </is>
-      </c>
-      <c r="D293" s="3" t="inlineStr">
+          <t>Mahrukh Irfan/Amirah</t>
+        </is>
+      </c>
+      <c r="D293" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6317,19 +6318,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>1299</v>
+        <v>1306</v>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>Qamar Un Nisa</t>
+          <t>Zeba Ansari</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
-        </is>
-      </c>
-      <c r="D294" s="3" t="inlineStr">
+          <t>Mahrukh Irfan/Amirah</t>
+        </is>
+      </c>
+      <c r="D294" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6337,19 +6338,20 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>1300</v>
+        <v>1307</v>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>Aneela Memon</t>
+          <t xml:space="preserve">Saba Ansari
+</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
-        </is>
-      </c>
-      <c r="D295" s="3" t="inlineStr">
+          <t>Mahrukh Irfan/Amirah</t>
+        </is>
+      </c>
+      <c r="D295" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6357,11 +6359,11 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>1301</v>
+        <v>1308</v>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reshma Khan </t>
+          <t>Neha Naaz</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
@@ -6369,7 +6371,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D296" s="3" t="inlineStr">
+      <c r="D296" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6377,11 +6379,11 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>1302</v>
+        <v>1309</v>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Firdaush Khan </t>
+          <t xml:space="preserve">Fathima Sani </t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
@@ -6389,7 +6391,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D297" s="3" t="inlineStr">
+      <c r="D297" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6397,11 +6399,11 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>1303</v>
+        <v>1310</v>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>Noor Jahan</t>
+          <t>Parbin Mallick</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
@@ -6409,7 +6411,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D298" s="3" t="inlineStr">
+      <c r="D298" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6417,11 +6419,11 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>1304</v>
+        <v>1311</v>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rabeka Khanam </t>
+          <t>Shahida</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
@@ -6429,7 +6431,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D299" s="3" t="inlineStr">
+      <c r="D299" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6437,12 +6439,11 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>1305</v>
+        <v>1312</v>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shamsheeda Bughum
-</t>
+          <t xml:space="preserve">Naseem Afreen </t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
@@ -6450,7 +6451,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D300" s="3" t="inlineStr">
+      <c r="D300" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6458,11 +6459,11 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>1306</v>
+        <v>1313</v>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>Zeba Ansari</t>
+          <t>Zaiba Faruque Shaikh</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
@@ -6470,7 +6471,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D301" s="3" t="inlineStr">
+      <c r="D301" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6478,12 +6479,11 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>1307</v>
+        <v>1314</v>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saba Ansari
-</t>
+          <t>Sameena Taj</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
@@ -6491,7 +6491,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D302" s="3" t="inlineStr">
+      <c r="D302" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6499,11 +6499,12 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>1308</v>
+        <v>1315</v>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>Neha Naaz</t>
+          <t xml:space="preserve">Rafia Beghum
+</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
@@ -6511,7 +6512,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D303" s="3" t="inlineStr">
+      <c r="D303" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6519,11 +6520,11 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>1309</v>
+        <v>1316</v>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fathima Sani </t>
+          <t>Shamim Shaikh</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
@@ -6531,7 +6532,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D304" s="3" t="inlineStr">
+      <c r="D304" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6539,11 +6540,11 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>1310</v>
+        <v>1317</v>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>Parbin Mallick</t>
+          <t>Afreen Parvez</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
@@ -6551,7 +6552,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D305" s="3" t="inlineStr">
+      <c r="D305" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6559,11 +6560,11 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>1311</v>
+        <v>1318</v>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>Shahida</t>
+          <t>Sabreen Khan</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
@@ -6571,7 +6572,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D306" s="3" t="inlineStr">
+      <c r="D306" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6579,11 +6580,11 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>1312</v>
+        <v>1319</v>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naseem Afreen </t>
+          <t>Naheeda Anjum</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
@@ -6591,7 +6592,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D307" s="3" t="inlineStr">
+      <c r="D307" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6599,11 +6600,11 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>1313</v>
+        <v>1320</v>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>Zaiba Faruque Shaikh</t>
+          <t>Dr Smita Shete</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
@@ -6611,7 +6612,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D308" s="3" t="inlineStr">
+      <c r="D308" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6619,11 +6620,11 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>1314</v>
+        <v>1321</v>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>Sameena Taj</t>
+          <t>Momina H M</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
@@ -6631,7 +6632,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D309" s="3" t="inlineStr">
+      <c r="D309" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6639,12 +6640,11 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>1315</v>
+        <v>1322</v>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rafia Beghum
-</t>
+          <t xml:space="preserve">Iram Irfan           </t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
@@ -6652,7 +6652,7 @@
           <t>Mahrukh Irfan/Amirah</t>
         </is>
       </c>
-      <c r="D310" s="3" t="inlineStr">
+      <c r="D310" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6660,19 +6660,19 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>1316</v>
+        <v>1323</v>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>Shamim Shaikh</t>
+          <t>Sajjad Ali Abbasi</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D311" s="3" t="inlineStr">
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D311" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6680,19 +6680,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>1317</v>
+        <v>1324</v>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>Afreen Parvez</t>
+          <t>Hassan Abid</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D312" s="3" t="inlineStr">
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D312" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6700,19 +6700,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>1318</v>
+        <v>1325</v>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Khan</t>
+          <t xml:space="preserve">Shafeeq Abid </t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D313" s="3" t="inlineStr">
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D313" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6720,19 +6720,19 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>1319</v>
+        <v>1326</v>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>Naheeda Anjum</t>
+          <t>Siraj Munir</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D314" s="3" t="inlineStr">
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D314" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6740,19 +6740,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>1320</v>
+        <v>1327</v>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>Dr Smita Shete</t>
+          <t>Abdul Latif�</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D315" s="3" t="inlineStr">
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D315" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6760,19 +6760,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>1321</v>
+        <v>1328</v>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>Momina H M</t>
+          <t xml:space="preserve">Ali Rehman </t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D316" s="3" t="inlineStr">
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D316" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6780,19 +6780,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>1322</v>
+        <v>1329</v>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Iram Irfan           </t>
+          <t>Ejaz Ali</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D317" s="3" t="inlineStr">
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D317" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6800,11 +6800,11 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>1323</v>
+        <v>1330</v>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>Sajjad Ali Abbasi</t>
+          <t>M Zaid</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
@@ -6812,7 +6812,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D318" s="3" t="inlineStr">
+      <c r="D318" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6820,11 +6820,11 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>1324</v>
+        <v>1331</v>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>Hassan Abid</t>
+          <t>Ataa Arshad</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
@@ -6832,7 +6832,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D319" s="3" t="inlineStr">
+      <c r="D319" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6840,11 +6840,11 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>1325</v>
+        <v>1332</v>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shafeeq Abid </t>
+          <t xml:space="preserve">Sharafuddin Chandio </t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
@@ -6852,7 +6852,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D320" s="3" t="inlineStr">
+      <c r="D320" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6860,11 +6860,11 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>1326</v>
+        <v>1333</v>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>Siraj Munir</t>
+          <t xml:space="preserve">Saud </t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
@@ -6872,7 +6872,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D321" s="3" t="inlineStr">
+      <c r="D321" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6880,11 +6880,11 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>1327</v>
+        <v>1334</v>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>Abdul Latif�</t>
+          <t xml:space="preserve">Qamar Ali </t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
@@ -6892,7 +6892,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D322" s="3" t="inlineStr">
+      <c r="D322" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6900,11 +6900,11 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>1328</v>
+        <v>1335</v>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ali Rehman </t>
+          <t xml:space="preserve">Muhib Sakhi </t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
@@ -6912,7 +6912,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D323" s="3" t="inlineStr">
+      <c r="D323" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6920,11 +6920,11 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>1329</v>
+        <v>1336</v>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>Ejaz Ali</t>
+          <t>Ali Afzal</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
@@ -6932,7 +6932,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D324" s="3" t="inlineStr">
+      <c r="D324" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6940,11 +6940,11 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>1330</v>
+        <v>1337</v>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>M Zaid</t>
+          <t xml:space="preserve">Yousuf  </t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
@@ -6952,7 +6952,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D325" s="3" t="inlineStr">
+      <c r="D325" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6960,11 +6960,11 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>1331</v>
+        <v>1338</v>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>Ataa Arshad</t>
+          <t xml:space="preserve">Talha Farooq </t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
@@ -6972,7 +6972,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D326" s="3" t="inlineStr">
+      <c r="D326" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6980,11 +6980,11 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>1332</v>
+        <v>1339</v>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sharafuddin Chandio </t>
+          <t>Danish Gohar</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
@@ -6992,7 +6992,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D327" s="3" t="inlineStr">
+      <c r="D327" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7000,11 +7000,11 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>1333</v>
+        <v>1340</v>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saud </t>
+          <t>Sohail Abbas Bhaker</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
@@ -7012,7 +7012,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D328" s="3" t="inlineStr">
+      <c r="D328" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7020,11 +7020,11 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>1334</v>
+        <v>1341</v>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Qamar Ali </t>
+          <t>Ather Ansari</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
@@ -7032,7 +7032,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D329" s="3" t="inlineStr">
+      <c r="D329" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7040,11 +7040,11 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>1335</v>
+        <v>1342</v>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muhib Sakhi </t>
+          <t>Kashif Ali</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
@@ -7052,7 +7052,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D330" s="3" t="inlineStr">
+      <c r="D330" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7060,11 +7060,11 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>1336</v>
+        <v>1343</v>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>Ali Afzal</t>
+          <t xml:space="preserve">Azeem Nadeem </t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
@@ -7072,7 +7072,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D331" s="3" t="inlineStr">
+      <c r="D331" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7080,11 +7080,11 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>1337</v>
+        <v>1344</v>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yousuf  </t>
+          <t>Junaid</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
@@ -7092,7 +7092,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D332" s="3" t="inlineStr">
+      <c r="D332" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7100,11 +7100,11 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Talha Farooq </t>
+          <t xml:space="preserve">Muhammad Imtiaz	</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
@@ -7112,7 +7112,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D333" s="3" t="inlineStr">
+      <c r="D333" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7120,11 +7120,11 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>1339</v>
+        <v>1346</v>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>Danish Gohar</t>
+          <t>Yaseer</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
@@ -7132,7 +7132,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D334" s="3" t="inlineStr">
+      <c r="D334" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7140,11 +7140,11 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>1340</v>
+        <v>1347</v>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>Sohail Abbas Bhaker</t>
+          <t>Arsalan Ali</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
@@ -7152,7 +7152,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D335" s="3" t="inlineStr">
+      <c r="D335" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7160,11 +7160,11 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>1341</v>
+        <v>1348</v>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>Ather Ansari</t>
+          <t xml:space="preserve">Hafiz Amir </t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
@@ -7172,7 +7172,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D336" s="3" t="inlineStr">
+      <c r="D336" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7180,11 +7180,11 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>Kashif Ali</t>
+          <t>Muhammad Talha Sajid</t>
         </is>
       </c>
       <c r="C337" s="2" t="inlineStr">
@@ -7192,7 +7192,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D337" s="3" t="inlineStr">
+      <c r="D337" s="4" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7200,11 +7200,11 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azeem Nadeem </t>
+          <t>Saqlain Yasin</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
@@ -7214,17 +7214,17 @@
       </c>
       <c r="D338" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>1344</v>
+        <v>1351</v>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>Junaid</t>
+          <t>Ali Hamza</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
@@ -7234,17 +7234,17 @@
       </c>
       <c r="D339" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>1345</v>
+        <v>1352</v>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muhammad Imtiaz	</t>
+          <t xml:space="preserve">Ali Javaid </t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr">
@@ -7254,17 +7254,17 @@
       </c>
       <c r="D340" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>Yaseer</t>
+          <t>Ahmad Raza</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
@@ -7274,17 +7274,17 @@
       </c>
       <c r="D341" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>1347</v>
+        <v>1354</v>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>Arsalan Ali</t>
+          <t>Nasir Algohar</t>
         </is>
       </c>
       <c r="C342" s="2" t="inlineStr">
@@ -7294,17 +7294,17 @@
       </c>
       <c r="D342" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>1348</v>
+        <v>1355</v>
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hafiz Amir </t>
+          <t xml:space="preserve">Fida </t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr">
@@ -7314,17 +7314,17 @@
       </c>
       <c r="D343" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>1349</v>
+        <v>1356</v>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Talha Sajid</t>
+          <t xml:space="preserve">Ali Hamza </t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr">
@@ -7334,17 +7334,17 @@
       </c>
       <c r="D344" s="3" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>1350</v>
+        <v>1357</v>
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>Saqlain Yasin</t>
+          <t>Imran Babar</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
@@ -7352,7 +7352,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D345" s="4" t="inlineStr">
+      <c r="D345" s="3" t="inlineStr">
         <is>
           <t>Submitted</t>
         </is>
@@ -7360,11 +7360,11 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>1351</v>
+        <v>1358</v>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>Ali Hamza</t>
+          <t>Bilal Qasim</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr">
@@ -7372,147 +7372,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D346" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
-        <v>1352</v>
-      </c>
-      <c r="B347" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ali Javaid </t>
-        </is>
-      </c>
-      <c r="C347" s="2" t="inlineStr">
-        <is>
-          <t>Rizwan Gohar</t>
-        </is>
-      </c>
-      <c r="D347" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
-        <v>1353</v>
-      </c>
-      <c r="B348" s="2" t="inlineStr">
-        <is>
-          <t>Ahmad Raza</t>
-        </is>
-      </c>
-      <c r="C348" s="2" t="inlineStr">
-        <is>
-          <t>Rizwan Gohar</t>
-        </is>
-      </c>
-      <c r="D348" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
-        <v>1354</v>
-      </c>
-      <c r="B349" s="2" t="inlineStr">
-        <is>
-          <t>Nasir Algohar</t>
-        </is>
-      </c>
-      <c r="C349" s="2" t="inlineStr">
-        <is>
-          <t>Rizwan Gohar</t>
-        </is>
-      </c>
-      <c r="D349" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
-        <v>1355</v>
-      </c>
-      <c r="B350" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fida </t>
-        </is>
-      </c>
-      <c r="C350" s="2" t="inlineStr">
-        <is>
-          <t>Rizwan Gohar</t>
-        </is>
-      </c>
-      <c r="D350" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
-        <v>1356</v>
-      </c>
-      <c r="B351" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ali Hamza </t>
-        </is>
-      </c>
-      <c r="C351" s="2" t="inlineStr">
-        <is>
-          <t>Rizwan Gohar</t>
-        </is>
-      </c>
-      <c r="D351" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="B352" s="2" t="inlineStr">
-        <is>
-          <t>Imran Babar</t>
-        </is>
-      </c>
-      <c r="C352" s="2" t="inlineStr">
-        <is>
-          <t>Rizwan Gohar</t>
-        </is>
-      </c>
-      <c r="D352" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
-        <v>1358</v>
-      </c>
-      <c r="B353" s="2" t="inlineStr">
-        <is>
-          <t>Bilal Qasim</t>
-        </is>
-      </c>
-      <c r="C353" s="2" t="inlineStr">
-        <is>
-          <t>Rizwan Gohar</t>
-        </is>
-      </c>
-      <c r="D353" s="4" t="inlineStr">
+      <c r="D346" s="3" t="inlineStr">
         <is>
           <t>Submitted</t>
         </is>

--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -29,10 +29,10 @@
       <b val="1"/>
     </font>
     <font>
-      <color rgb="00006400"/>
+      <color rgb="00FF0000"/>
     </font>
     <font>
-      <color rgb="00FF0000"/>
+      <color rgb="00006400"/>
     </font>
   </fonts>
   <fills count="2">
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D346"/>
+  <dimension ref="A1:D372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,99 +472,99 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Ayesha Siddiqia</t>
+          <t>Asia Saleem Saudi Arabia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Mishaal Farhan</t>
+          <t xml:space="preserve"> Mishaal Farhan</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Mahjbeen Kashif</t>
+          <t>Surriya Qayyum</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
+          <t xml:space="preserve"> Mishaal Farhan</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Zenab Irshad</t>
+          <t>Farah Riaz Lahore</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
+          <t xml:space="preserve"> Mishaal Farhan</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bisma Irshd </t>
+          <t>Fatima Tahir CA</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
+          <t xml:space="preserve"> Mishaal Farhan</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Sobia</t>
+          <t>Ishrat Jhung</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
+          <t xml:space="preserve"> Mishaal Farhan</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -572,19 +572,19 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rifat Ahmad </t>
+          <t>Savaira Gohar Karachi</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
+          <t xml:space="preserve"> Mishaal Farhan</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -592,19 +592,19 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Bano Fayaz</t>
+          <t>Samra Basharat</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
+          <t xml:space="preserve"> Mishaal Farhan</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -612,19 +612,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Nazia�Aleem</t>
+          <t>Emaan Rafiq</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
+          <t xml:space="preserve"> Mishaal Farhan</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -632,19 +632,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Fozia Tariq</t>
+          <t>Farzana Imran Gujarat PK</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
+          <t xml:space="preserve"> Mishaal Farhan</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -652,19 +652,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Hira Mansha</t>
+          <t>Shazia Saeed</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
+          <t xml:space="preserve"> Mishaal Farhan</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -672,51 +672,51 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Humera Shafiq</t>
+          <t>Ayesha Siddiqia</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
+          <t xml:space="preserve"> Mishaal Farhan</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Hamna</t>
+          <t>Aqsa Mushtaq</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
+          <t xml:space="preserve"> Mishaal Farhan</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bisma Batool Amjad </t>
+          <t>Zubeda Yaqoob</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -726,17 +726,17 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shazia Haee </t>
+          <t>Mahjbeen Kashif</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -746,17 +746,17 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Kosar Fatima</t>
+          <t>Zenab Irshad Korangi Pak</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Mohebba Safdar</t>
+          <t>Bisma Irshd Korangi</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -786,17 +786,17 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Musarat Afzal</t>
+          <t>Shugufta Qasoor</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Afreen Yaqoob </t>
+          <t>Sobia Baji KCH</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -832,11 +832,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Farah</t>
+          <t>Rifat Ahmad USA</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -852,11 +852,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Shabana Baji</t>
+          <t>Bano Fayaz</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -872,19 +872,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Sadia Adnan</t>
+          <t>Nazia Aleem Pak</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
+          <t>Nadia Yaqoob</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -892,119 +892,119 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Samina Fiaz</t>
+          <t>Fozia Tariq</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
+          <t>Nadia Yaqoob</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Asma Jawed</t>
+          <t>Hira Mansha</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
+          <t>Nadia Yaqoob</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Ayesha Mushtaq</t>
+          <t>Humera Shafiq</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
+          <t>Nadia Yaqoob</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Faryal Khadim Hussain </t>
+          <t>Hamna Pk</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
+          <t>Nadia Yaqoob</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Sughra</t>
+          <t>Bisma Batool Amjad</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
+          <t>Nadia Yaqoob</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Rafia Khadim Hussain</t>
+          <t>Shazia Haee</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
+          <t>Nadia Yaqoob</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1012,19 +1012,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom</t>
+          <t>Kosar Fatima</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="inlineStr">
+          <t>Nadia Yaqoob</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1032,19 +1032,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shantul Junaid </t>
+          <t>Mohebba safdar</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
+          <t>Nadia Yaqoob</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1052,19 +1052,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rubab Mir </t>
+          <t>Musarat Afzal</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="inlineStr">
+          <t>Nadia Yaqoob</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1072,19 +1072,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Saba Yasir</t>
+          <t>Afreen Yaqoob</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="inlineStr">
+          <t>Nadia Yaqoob</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1092,19 +1092,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Samina Nadeem</t>
+          <t>Farah</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="inlineStr">
+          <t>Nadia Yaqoob</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1112,19 +1112,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Zoobi</t>
+          <t>Shabana Baji USA</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
+          <t>Nadia Yaqoob</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1132,19 +1132,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Zulekha Mirjat</t>
+          <t>Sadia Adnan</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
+          <t>Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1152,119 +1152,119 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alisha Kanwal </t>
+          <t>Samina Fiaz</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
+          <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ambreen Riaz </t>
+          <t>Asma Jawed</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
+          <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Fozia Rafiq</t>
+          <t>Ayesha Mushtaq Pak</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
+          <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Anjeela Basharat</t>
+          <t>Faryal Khadim Hussain</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
+          <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asia Ijaz </t>
+          <t>Sughra Baji Bhawal Nagar</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
+          <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ayesha Ghulam </t>
+          <t>Rafia Khadim Hussain</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
+          <t>Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1272,19 +1272,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Amna Rashid�</t>
+          <t>Kalsoom Baji FSD Pak</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
+          <t>Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1292,19 +1292,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bushra Farooq </t>
+          <t>Shantul Junaid</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="inlineStr">
+          <t>Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1312,19 +1312,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tahira Nazish Sgy </t>
+          <t>Rubab Mir</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="inlineStr">
+          <t>Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1332,19 +1332,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Hareem Altaf</t>
+          <t>Saba Yasir Gojra PK</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="inlineStr">
+          <t>Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1352,19 +1352,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Amna Noor</t>
+          <t>Samina Nadeem SKP</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="inlineStr">
+          <t>Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1372,19 +1372,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Falak Naaz</t>
+          <t>Zoobi Baji Gujranwala</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="inlineStr">
+          <t>Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1392,19 +1392,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Iqra Khalid</t>
+          <t>Zulekha Mirjat</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="inlineStr">
+          <t>Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1412,19 +1412,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mahnoor�Khadim Hussain </t>
+          <t>Alisha kanwal</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1432,19 +1432,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farzana Nargis </t>
+          <t>Ambreen Riaz</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1452,19 +1452,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Mubeena Munir</t>
+          <t>Fozia Rafiq</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1472,19 +1472,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Zainab Faizan</t>
+          <t>Anjeela Basharat</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1492,19 +1492,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Rukaya Riayaz</t>
+          <t>Asia Ijaz</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1512,19 +1512,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Quratulain</t>
+          <t>Amna Rashid</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1532,19 +1532,15 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>1067</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>Ume Hadia</t>
-        </is>
-      </c>
+        <v>1054</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1552,19 +1548,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Maliha Khalid</t>
+          <t>Bushra Farooq</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1572,19 +1568,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Rahila Shoaib</t>
+          <t>Tahira Nazish sgy</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D57" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1592,19 +1588,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Sumera Kashif</t>
+          <t>Hareem Altaf</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D58" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1612,19 +1608,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Aisha Imran</t>
+          <t>Amna Noor</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D59" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1632,19 +1628,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Samra Qasim</t>
+          <t>Falak Naaz</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D60" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1652,19 +1648,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Nadia Gohar</t>
+          <t>Iqra Khalid</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
-        </is>
-      </c>
-      <c r="D61" s="4" t="inlineStr">
+          <t>Amna Rafiq</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1672,11 +1668,11 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Rani Raza</t>
+          <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1684,7 +1680,7 @@
           <t>Sadia Ismail</t>
         </is>
       </c>
-      <c r="D62" s="4" t="inlineStr">
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1692,11 +1688,11 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Naseem Fida Hussain</t>
+          <t>Farzana Nargis</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1704,7 +1700,7 @@
           <t>Sadia Ismail</t>
         </is>
       </c>
-      <c r="D63" s="4" t="inlineStr">
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1712,19 +1708,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Rahat Usman</t>
+          <t>Mubeena Munir</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D64" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1732,19 +1728,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Rehana Umer</t>
+          <t>Zainab Faizan</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D65" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1752,19 +1748,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sehar Abid </t>
+          <t>Rukaya riayaz</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D66" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1772,19 +1768,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Shanza Sabir</t>
+          <t>Quratulain Mian Wali Pak</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D67" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1792,19 +1788,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parwisha Raees </t>
+          <t>Ume Hadia</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D68" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1812,19 +1808,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>Shaziya Khatoon</t>
+          <t>maliha Khalid</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D69" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1832,19 +1828,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Huram Fatima</t>
+          <t>Rahila Shoaib</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D70" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1852,19 +1848,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Rifat Raza</t>
+          <t>Sumera kashif</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D71" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1872,19 +1868,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Mafiya Aslam</t>
+          <t>Aisha Imran</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D72" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1892,19 +1888,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>Shakeela Taj</t>
+          <t>samra Qasim</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D73" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1912,19 +1908,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Tahira Tabassum</t>
+          <t>Nadia Gohar</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D74" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1932,19 +1928,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Iqra Shahzaib</t>
+          <t>Rani Raza</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
-        </is>
-      </c>
-      <c r="D75" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1952,19 +1948,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Tasheen Shahi</t>
+          <t>Naseem Fida Hussain</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D76" s="4" t="inlineStr">
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1972,19 +1968,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Zahida Shahi</t>
+          <t>Rahat Usman</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D77" s="4" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -1992,19 +1988,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Zenab Jamila</t>
+          <t>Rehana Umer</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D78" s="4" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2012,19 +2008,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Zoubiya Aqil</t>
+          <t>Sehar Abid</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D79" s="4" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2032,19 +2028,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Zunaira Afzal</t>
+          <t>Shanza Sabir</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D80" s="4" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2052,19 +2048,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Shiza Junaid</t>
+          <t>Parwisha Raees</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D81" s="4" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2072,19 +2068,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naheed Kashif </t>
+          <t>Shaziya Khatoon</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D82" s="4" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2092,19 +2088,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Nazia Sattar</t>
+          <t>Huram Fatima</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D83" s="4" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2112,19 +2108,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Rifat Raza</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D84" s="4" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2132,19 +2128,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amina Khatoon </t>
+          <t>Mafiya Aslam</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D85" s="4" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2152,19 +2148,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farah Hussain </t>
+          <t>Shakeela Taj (Australia)</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D86" s="4" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2172,19 +2168,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kiran Shahi </t>
+          <t>Tahira Tabassum</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D87" s="4" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2192,19 +2188,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Faryal Qayyum </t>
+          <t>Iqra Shahzaib</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
-        </is>
-      </c>
-      <c r="D88" s="4" t="inlineStr">
+          <t>Eman Rafiq</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2212,11 +2208,11 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noreen Amjad </t>
+          <t>Tasheen Shahi</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -2224,7 +2220,7 @@
           <t>Savaira Gohar</t>
         </is>
       </c>
-      <c r="D89" s="4" t="inlineStr">
+      <c r="D89" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2232,19 +2228,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Amaira Rehman</t>
+          <t>Zahida Shahi</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D90" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2252,19 +2248,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>Amra Boota</t>
+          <t>Zenab Jamila</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D91" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2272,19 +2268,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Andaleeb Nayar Azam</t>
+          <t>Zoubiya Aqil</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D92" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2292,19 +2288,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>Bushra Liaqat</t>
+          <t>Zunaira Afzal</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D93" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2312,19 +2308,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Dr.Fozia Naeem</t>
+          <t>Shiza Junaid</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D94" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2332,19 +2328,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
+          <t>Naheed Kashif</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D95" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2352,19 +2348,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Fariha Imran</t>
+          <t>Nazia Sattar</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D96" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2372,19 +2368,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Farzana Jabbar</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D97" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2392,19 +2388,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Hafsa Farooq</t>
+          <t>Amina Khatoon</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D98" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2412,19 +2408,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muskan Aunti </t>
+          <t>Farah Hussain</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D99" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2432,19 +2428,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>1112</v>
+        <v>1099</v>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kousar Irfan </t>
+          <t>Kiran Shahi</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D100" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2452,19 +2448,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Aurangzaib</t>
+          <t>Faryal Qayyum</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D101" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2472,19 +2468,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Maila Raina</t>
+          <t>Noreen Amjad</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D102" s="4" t="inlineStr">
+          <t>Savaira Gohar</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2492,19 +2488,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>Malaika Bburt</t>
+          <t>Amaira Rehman</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D103" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2512,19 +2508,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Mehwish Mushtaq</t>
+          <t>Amra Boota</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D104" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2532,19 +2528,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>Nadia Liaquat</t>
+          <t>Andaleeb Nayar azam</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D105" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2552,19 +2548,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Nargis</t>
+          <t>Bushra liaqat</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D106" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2572,19 +2568,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>Nazia Norin</t>
+          <t>Dr. Fozia naeem</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D107" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2592,19 +2588,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Rimsha Bashir</t>
+          <t>Erum Rasheed</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D108" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2612,19 +2608,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
+          <t>Fariha Imran</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D109" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2632,19 +2628,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Saima Wariyam</t>
+          <t>Farzana jabbar</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D110" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2652,19 +2648,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>Sakina Zakir</t>
+          <t>Hafsa Farooq</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D111" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2672,19 +2668,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Samina Farman</t>
+          <t>Muskan Aunti</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D112" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2692,19 +2688,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>Sana Manzoor</t>
+          <t>Kousar Irfan</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D113" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2712,19 +2708,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Sana Shahbaz</t>
+          <t>Kalsoom Aurangzaib</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D114" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2732,19 +2728,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>Shagufta Ibrahim</t>
+          <t>Maila Raina</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D115" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2752,19 +2748,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>Shama Malik</t>
+          <t>Malaika Bburt</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D116" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2772,19 +2768,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sobia Imran </t>
+          <t>Mehwish mushtaq</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D117" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2792,19 +2788,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>1130</v>
+        <v>1117</v>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tahira Sajjad </t>
+          <t>Nadia Liaquat</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D118" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2812,19 +2808,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tayyaba Shahzadi </t>
+          <t>Nargis</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Rasheed</t>
-        </is>
-      </c>
-      <c r="D119" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2832,19 +2828,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>Tausif Anwar</t>
+          <t>Nazia Norin</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D120" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2852,19 +2848,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>Sabir Tarefdar</t>
+          <t>Rimsha Bashir</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D121" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2872,19 +2868,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>1134</v>
+        <v>1121</v>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sohab Afser </t>
+          <t>Sadia Ismail</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D122" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2892,19 +2888,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ashik Mondal </t>
+          <t>Saima Wariyam</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D123" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2912,19 +2908,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ibrar Ahmed </t>
+          <t>Sakina zakir</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D124" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2932,19 +2928,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sk Nazir Hussain </t>
+          <t>Samina farman</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D125" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2952,19 +2948,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>Anwar Hussain</t>
+          <t>Sana Manzoor</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D126" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2972,19 +2968,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zeeshan Shafique </t>
+          <t>Sana Shahbaz</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D127" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -2992,19 +2988,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>Mohammad Shahid Alam</t>
+          <t>Shagufta Ibrahim</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D128" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3012,19 +3008,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>Mohammed Zainul Abedin Alam</t>
+          <t>Shama Malik</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D129" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3032,19 +3028,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>Md Wasim</t>
+          <t>Sobia Imran</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D130" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3052,19 +3048,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>Mohammad Kaif</t>
+          <t>Tahira Sajjad</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D131" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3072,19 +3068,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>Syed Zarar Mehdi</t>
+          <t>Tayyaba Shahzadi</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D132" s="4" t="inlineStr">
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D132" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3092,19 +3088,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tahir Shaikh </t>
+          <t>Tausif Anwar Kolkata</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D133" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3112,19 +3108,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>Adnan Ahmad</t>
+          <t>Sabir tarefdar Kolkata</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D134" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3132,19 +3128,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>Zulkar Nain</t>
+          <t>Sohab Afser Kolkata</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D135" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3152,19 +3148,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zakir Hussain </t>
+          <t>Ashik mondal Kolkata</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D136" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3172,19 +3168,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>Md Serajul</t>
+          <t>Ibrar Ahmed Kolkata</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D137" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3192,19 +3188,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>Md. Ziyaul</t>
+          <t>Sk Nazir Hussain Kolkata</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D138" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3212,19 +3208,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>Faizul Haq</t>
+          <t>Anwar Hussain Kolkata</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D139" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3232,19 +3228,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>1152</v>
+        <v>1139</v>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shahenshah Haidar </t>
+          <t>Zeeshan Shafique Dubai</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D140" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3252,19 +3248,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Md Shakil Khan </t>
+          <t>MOHAMMAD SHAHID ALAM</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D141" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3272,19 +3268,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zahid Nazir </t>
+          <t>MOHAMMED ZAINUL ABEDIN ALAM</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D142" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3292,19 +3288,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zahid Ansari </t>
+          <t>Md wasim, Kolkata</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D143" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3312,19 +3308,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali</t>
+          <t>Mohammad kaif, Kolkata</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D144" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3332,19 +3328,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>Tanweer Hussain</t>
+          <t>Syed zarar mehdi Kolkata</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D145" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3352,19 +3348,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>Sofi Alam Mallick</t>
+          <t>Tahir shaikh Mumbai India</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D146" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D146" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3372,19 +3368,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>Shubhgautam</t>
+          <t>Adnan Ahmad Allahabad</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D147" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3392,19 +3388,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>Faiz Gohar</t>
+          <t>Zulkar nain</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali / Hassan Abid</t>
-        </is>
-      </c>
-      <c r="D148" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3412,20 +3408,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muhammad Yaseer
-</t>
+          <t>Zakir Hussain assam India</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D149" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3433,19 +3428,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Imtiaz</t>
+          <t>MD Serajul Hoda Purnea India</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D150" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3453,20 +3448,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ejaaz Ali
-</t>
+          <t>MD. Ziyaul Hoda Punia India</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D151" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3474,19 +3468,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Hassan Abid Ali</t>
+          <t>FAIZUL HAQ Bandipora Srinagar J&amp;K</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D152" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D152" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3494,19 +3488,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>Shafiq Abid</t>
+          <t>Shahenshah Haidar Bihar India</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D153" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3514,19 +3508,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ghulam Nabi </t>
+          <t>Md Shakil Khan Bhar+Dubai</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D154" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D154" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3534,19 +3528,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>Ataa Arshad</t>
+          <t>Zahid Nazir Anantnag</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D155" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3554,19 +3548,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>Abid Hussain</t>
+          <t>Zahid Ansari Vikroli Mumbai</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D156" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3574,19 +3568,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shahenshah Haidar </t>
+          <t>Jamaal Ali</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D157" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3594,19 +3588,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>Saleem Siddiqui</t>
+          <t>Tanweer Hussain</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D158" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D158" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3614,19 +3608,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>Bilal Yaqoob Memon</t>
+          <t>Sofi Alam Mallick</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D159" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3634,19 +3628,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>Hamza Rocky</t>
+          <t>Shubhgautam</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D160" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3654,19 +3648,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>Saad Khalid</t>
+          <t>Faiz Gohar</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D161" s="4" t="inlineStr">
+          <t xml:space="preserve">Jamaal Ali </t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3674,19 +3668,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>Junaid</t>
+          <t>Shifa Shaikh Maharashtra</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D162" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D162" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3694,19 +3688,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azeem Nadeem </t>
+          <t>Mariam Khan Asaam India</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D163" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D163" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3714,19 +3708,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>Athe Ansar</t>
+          <t>Urujj Khushhaaal India</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
-        </is>
-      </c>
-      <c r="D164" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D164" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3734,19 +3728,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shifa Shaikh  </t>
+          <t>Tahaseenn Khushhaaal India</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D165" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3754,19 +3748,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mariam Khan </t>
+          <t>Afaaf Khushhaaal India</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D166" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3774,19 +3768,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Urujj </t>
+          <t>Iram Jamal Delhi</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D167" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3794,19 +3788,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>Tahaseenn</t>
+          <t>Nusrat Bhat</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D168" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3814,19 +3808,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>Afaaf Khushhaal</t>
+          <t>Najma Arif</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D169" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3834,19 +3828,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Iram Jamal  </t>
+          <t>Sana Jamal Delhi</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D170" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D170" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3854,19 +3848,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nusrat Bhat </t>
+          <t>Syeda Sabina Malik Asaam</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D171" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3874,19 +3868,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Najma Arif </t>
+          <t>Rukaya Riaz</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D172" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3894,19 +3888,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>Sana Jamal</t>
+          <t>Sakina Bano</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D173" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3914,19 +3908,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>Syeda Sabina Malik Asaam</t>
+          <t>Sakila Younus</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D174" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D174" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3934,19 +3928,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rukaya Riaz </t>
+          <t>Jasmin Younus</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D175" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3954,19 +3948,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>Sakina Bano</t>
+          <t>Taiyaba Farooq Memom</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D176" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3974,19 +3968,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>Sakila Younus</t>
+          <t>Farhat Riaz Patna Bihar</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D177" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -3994,19 +3988,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jasmin Younus </t>
+          <t>Saniya Arif Gohar</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D178" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D178" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4014,19 +4008,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>Taiyaba Farooq Memon</t>
+          <t>Haseena Khan</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D179" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4034,19 +4028,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farhat Riaz </t>
+          <t>Tamanna Firdaus</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D180" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D180" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4054,19 +4048,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saniya Arif Gohar </t>
+          <t>Sapna Patel</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D181" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4074,19 +4068,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>Haseena Khan</t>
+          <t>Sunaina Gohar</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D182" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4094,19 +4088,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamanna Firdaus </t>
+          <t>Rasida Parween</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D183" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D183" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4114,19 +4108,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>Sapna Patel</t>
+          <t>Aksha Gohar</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D184" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4134,19 +4128,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>Sunaina Gohar</t>
+          <t>fizaa gohar</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D185" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4154,19 +4148,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>Rasida Parween</t>
+          <t>zeba Ansari</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D186" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D186" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4174,19 +4168,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>Aksha Gohar</t>
+          <t>Sufya Shahadat</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D187" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4194,19 +4188,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fizaa Gohar </t>
+          <t>Zakir Hussain</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D188" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D188" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4214,19 +4208,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zeba Ansari </t>
+          <t>Hamdiya Kazim</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D189" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4234,19 +4228,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>Sufya Shahadat</t>
+          <t>Zenab Delhi</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D190" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D190" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4254,19 +4248,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>Zakir Hussain</t>
+          <t>Shabnam Alam</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D191" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D191" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4274,19 +4268,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>Hamdiya Kazim</t>
+          <t>Sufiya Alam</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D192" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D192" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4294,19 +4288,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zenab </t>
+          <t>Lubeena Mehmood</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D193" s="4" t="inlineStr">
+          <t xml:space="preserve"> Sabreen Younus</t>
+        </is>
+      </c>
+      <c r="D193" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4314,20 +4308,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shabnam Alam
-</t>
+          <t>Mishaal Farhan HYD Pak</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D194" s="4" t="inlineStr">
+          <t>Kanwal Farhan</t>
+        </is>
+      </c>
+      <c r="D194" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4335,20 +4328,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sufiya Alam
-</t>
+          <t>Raza Farhan HYD Pak</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D195" s="4" t="inlineStr">
+          <t>Kanwal Farhan</t>
+        </is>
+      </c>
+      <c r="D195" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4356,19 +4348,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lubeena Mehmood </t>
+          <t>Muhammad Farhan HYD Pak</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Younus / Afaaf Khushhaaal</t>
-        </is>
-      </c>
-      <c r="D196" s="4" t="inlineStr">
+          <t>Kanwal Farhan</t>
+        </is>
+      </c>
+      <c r="D196" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4376,11 +4368,11 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>Mishaal Farhan</t>
+          <t>Ishmal Furqan HYD Pak</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -4388,7 +4380,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D197" s="4" t="inlineStr">
+      <c r="D197" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4396,11 +4388,11 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raza Farhan</t>
+          <t>Areeba Furqan HYD Pak</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -4408,7 +4400,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D198" s="4" t="inlineStr">
+      <c r="D198" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4416,11 +4408,11 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Farhan�</t>
+          <t>Syeda Samia Gohar HYD Pak</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
@@ -4428,7 +4420,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D199" s="4" t="inlineStr">
+      <c r="D199" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4436,11 +4428,11 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>Ishmal Furqan</t>
+          <t>Anoosha Furqan HYD Pak</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
@@ -4448,7 +4440,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D200" s="4" t="inlineStr">
+      <c r="D200" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4456,11 +4448,11 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>Areeba Furqan</t>
+          <t>Sumair Naeem HYD Pak</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
@@ -4468,7 +4460,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D201" s="4" t="inlineStr">
+      <c r="D201" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4476,11 +4468,11 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syeda Samia Gohar </t>
+          <t>Naveera Farhan HYD Pak</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
@@ -4488,7 +4480,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D202" s="4" t="inlineStr">
+      <c r="D202" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4496,11 +4488,11 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anoosha Furqan </t>
+          <t>Areesha Furqan(Hyderabad )</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
@@ -4508,7 +4500,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D203" s="4" t="inlineStr">
+      <c r="D203" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4516,11 +4508,11 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>Sumair Naeem</t>
+          <t>Farkhunda Saleem karachi</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
@@ -4528,7 +4520,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D204" s="4" t="inlineStr">
+      <c r="D204" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4536,11 +4528,11 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>Naveera Farhan</t>
+          <t>Tamanna Firdaus India</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
@@ -4548,7 +4540,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D205" s="4" t="inlineStr">
+      <c r="D205" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4556,11 +4548,11 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>Areesha Furqan</t>
+          <t>Afreen Kamal India</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
@@ -4568,7 +4560,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D206" s="4" t="inlineStr">
+      <c r="D206" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4576,11 +4568,11 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farkhunda Saleem </t>
+          <t>Noushaba Gohar Kotri</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
@@ -4588,7 +4580,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D207" s="4" t="inlineStr">
+      <c r="D207" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4596,11 +4588,11 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>Tamanna Firdaus</t>
+          <t>Minaz khanum India</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -4608,7 +4600,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D208" s="4" t="inlineStr">
+      <c r="D208" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4616,11 +4608,11 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>Afreen Kamal</t>
+          <t>Shabnam Bano India</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
@@ -4628,7 +4620,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D209" s="4" t="inlineStr">
+      <c r="D209" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4636,11 +4628,11 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>Noushaba Gohar</t>
+          <t>Kanwal Farhan hyderabad</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
@@ -4648,7 +4640,7 @@
           <t>Kanwal Farhan</t>
         </is>
       </c>
-      <c r="D210" s="4" t="inlineStr">
+      <c r="D210" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4656,19 +4648,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Minaz Khanum </t>
+          <t>Sumair Aslam</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
-        </is>
-      </c>
-      <c r="D211" s="4" t="inlineStr">
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D211" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4676,19 +4668,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>Shabnam Bano</t>
+          <t>Rownak Jahan</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
-        </is>
-      </c>
-      <c r="D212" s="4" t="inlineStr">
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D212" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4696,19 +4688,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kanwal Farhan  </t>
+          <t>Fayzul Karim</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
-        </is>
-      </c>
-      <c r="D213" s="4" t="inlineStr">
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D213" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4716,11 +4708,11 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sumair Aslam </t>
+          <t>Rasel kabir</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
@@ -4728,7 +4720,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D214" s="4" t="inlineStr">
+      <c r="D214" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4736,11 +4728,11 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>Rownak Jahan</t>
+          <t>Farhana islam</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
@@ -4748,7 +4740,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D215" s="4" t="inlineStr">
+      <c r="D215" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4756,11 +4748,11 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>Fayzul Karim</t>
+          <t>Maria Gohar</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
@@ -4768,7 +4760,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D216" s="4" t="inlineStr">
+      <c r="D216" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4776,11 +4768,11 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>Rasel Kabir</t>
+          <t>MD Firdous</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
@@ -4788,7 +4780,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D217" s="4" t="inlineStr">
+      <c r="D217" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4796,11 +4788,11 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>Farhana Islam</t>
+          <t>Al Amin Gohar</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
@@ -4808,7 +4800,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D218" s="4" t="inlineStr">
+      <c r="D218" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4816,11 +4808,11 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>Maria Gohar</t>
+          <t>Beauty Rani</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
@@ -4828,7 +4820,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D219" s="4" t="inlineStr">
+      <c r="D219" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4836,11 +4828,11 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>Md Firdous</t>
+          <t>Tarin Tara</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -4848,7 +4840,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D220" s="4" t="inlineStr">
+      <c r="D220" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4856,11 +4848,11 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>Al Amin Gohar</t>
+          <t>Moon Afsana</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
@@ -4868,7 +4860,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D221" s="4" t="inlineStr">
+      <c r="D221" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4876,11 +4868,11 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beauty Rani </t>
+          <t>Asia Akter</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
@@ -4888,7 +4880,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D222" s="4" t="inlineStr">
+      <c r="D222" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4896,11 +4888,11 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>Tarin Tara</t>
+          <t>Masuma Akter</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
@@ -4908,7 +4900,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D223" s="4" t="inlineStr">
+      <c r="D223" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4916,11 +4908,11 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>Moon Afsana</t>
+          <t>Runa Akter</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
@@ -4928,7 +4920,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D224" s="4" t="inlineStr">
+      <c r="D224" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4936,11 +4928,11 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>Asia Akter</t>
+          <t>Bushra khatun</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -4948,7 +4940,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D225" s="4" t="inlineStr">
+      <c r="D225" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4956,11 +4948,11 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>Masuma Akter</t>
+          <t>Afsha khatun</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -4968,7 +4960,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D226" s="4" t="inlineStr">
+      <c r="D226" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4976,11 +4968,11 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>Runa Akter</t>
+          <t>Rina Akter</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
@@ -4988,7 +4980,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D227" s="4" t="inlineStr">
+      <c r="D227" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -4996,11 +4988,11 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>Bushra Khatun</t>
+          <t>Shanta Akter</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
@@ -5008,7 +5000,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D228" s="4" t="inlineStr">
+      <c r="D228" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5016,19 +5008,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
+          <t>Mahatarima Hashi</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
-        <is>
-          <t>Afsha Khatun</t>
-        </is>
-      </c>
-      <c r="D229" s="4" t="inlineStr">
+      <c r="D229" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5036,11 +5028,11 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>Rina Akter</t>
+          <t>Atif Ahmad</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
@@ -5048,7 +5040,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D230" s="4" t="inlineStr">
+      <c r="D230" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5056,11 +5048,11 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>Shanta Akter</t>
+          <t>Shamima Nasrin</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
@@ -5068,7 +5060,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D231" s="4" t="inlineStr">
+      <c r="D231" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5076,11 +5068,11 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>Mahatarima Hashi</t>
+          <t>Sultana Razia</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
@@ -5088,7 +5080,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D232" s="4" t="inlineStr">
+      <c r="D232" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5096,11 +5088,11 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>Atif Ahmad</t>
+          <t>Riaz ul Islam</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
@@ -5108,7 +5100,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D233" s="4" t="inlineStr">
+      <c r="D233" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5116,11 +5108,11 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shamima Nasrin </t>
+          <t>Nazrin Rumi</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
@@ -5128,7 +5120,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D234" s="4" t="inlineStr">
+      <c r="D234" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5136,11 +5128,11 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sultana Razia </t>
+          <t>Shahadat Hossain</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
@@ -5148,7 +5140,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D235" s="4" t="inlineStr">
+      <c r="D235" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5156,11 +5148,11 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riaz Ul Islam </t>
+          <t>Seema Islam</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
@@ -5168,7 +5160,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D236" s="4" t="inlineStr">
+      <c r="D236" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5176,11 +5168,11 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nazrin Rumi </t>
+          <t>Doly Islam</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
@@ -5188,7 +5180,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D237" s="4" t="inlineStr">
+      <c r="D237" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5196,11 +5188,11 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>Shahadat Hossain</t>
+          <t>MD Rafi Uddin</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -5208,7 +5200,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D238" s="4" t="inlineStr">
+      <c r="D238" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5216,11 +5208,11 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seema Islam </t>
+          <t>Kabirul Islam</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
@@ -5228,7 +5220,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D239" s="4" t="inlineStr">
+      <c r="D239" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5236,11 +5228,11 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>Doly Islam</t>
+          <t>Joytara Bibi</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
@@ -5248,7 +5240,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D240" s="4" t="inlineStr">
+      <c r="D240" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5256,11 +5248,11 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Md Rafi Uddin </t>
+          <t>MD Zane Alam</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
@@ -5268,7 +5260,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D241" s="4" t="inlineStr">
+      <c r="D241" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5276,11 +5268,11 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>Kabirul Islam</t>
+          <t>Shamima Aktar</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
@@ -5288,7 +5280,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D242" s="4" t="inlineStr">
+      <c r="D242" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5296,11 +5288,11 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>Joytara Bibi</t>
+          <t>Azizul Haque</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
@@ -5308,7 +5300,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D243" s="4" t="inlineStr">
+      <c r="D243" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5316,11 +5308,11 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>Md Zane Alam</t>
+          <t>Fouzia Karim</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
@@ -5328,7 +5320,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D244" s="4" t="inlineStr">
+      <c r="D244" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5336,11 +5328,11 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>Shamima Aktar</t>
+          <t>Zannatun Nahar</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
@@ -5348,7 +5340,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D245" s="4" t="inlineStr">
+      <c r="D245" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5356,11 +5348,11 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azizul Haque </t>
+          <t>Selina Nasrin</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
@@ -5368,7 +5360,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D246" s="4" t="inlineStr">
+      <c r="D246" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5376,11 +5368,11 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>Fouzia Karim</t>
+          <t>Mousumi</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
@@ -5388,7 +5380,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D247" s="4" t="inlineStr">
+      <c r="D247" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5396,11 +5388,11 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>Zannatun  Nahar</t>
+          <t>Monalisa</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
@@ -5408,7 +5400,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D248" s="4" t="inlineStr">
+      <c r="D248" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5416,11 +5408,11 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>Selina Nasrin</t>
+          <t>Shapla Shapu</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
@@ -5428,7 +5420,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D249" s="4" t="inlineStr">
+      <c r="D249" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5436,11 +5428,11 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mousumi </t>
+          <t>Fateema Sayma</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -5448,7 +5440,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D250" s="4" t="inlineStr">
+      <c r="D250" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5456,11 +5448,11 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>Monalisa</t>
+          <t>Fateema Sidratul Muntaha</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
@@ -5468,7 +5460,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D251" s="4" t="inlineStr">
+      <c r="D251" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5476,11 +5468,11 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>Shapla Shapu</t>
+          <t>Jannatun Nila</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
@@ -5488,7 +5480,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D252" s="4" t="inlineStr">
+      <c r="D252" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5496,11 +5488,11 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fateema Sayma </t>
+          <t>Taslima Rashid</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
@@ -5508,7 +5500,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D253" s="4" t="inlineStr">
+      <c r="D253" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5516,11 +5508,11 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fateema Sidratul Muntaha </t>
+          <t>Afrina Arpi</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
@@ -5528,7 +5520,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D254" s="4" t="inlineStr">
+      <c r="D254" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5536,11 +5528,11 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>Jannatun Nila</t>
+          <t>Turjo Armania</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
@@ -5548,7 +5540,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D255" s="4" t="inlineStr">
+      <c r="D255" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5556,11 +5548,11 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>Taslima Rashid</t>
+          <t>Mobarok Hossain</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
@@ -5568,7 +5560,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D256" s="4" t="inlineStr">
+      <c r="D256" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5576,11 +5568,11 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>Afrina Arpi</t>
+          <t>Haieder Ali</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
@@ -5588,7 +5580,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D257" s="4" t="inlineStr">
+      <c r="D257" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5596,11 +5588,11 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>Turjo Armania</t>
+          <t>Samsul Alam</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
@@ -5608,7 +5600,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D258" s="4" t="inlineStr">
+      <c r="D258" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5616,11 +5608,11 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>Mobarok Hossain</t>
+          <t>Firoj Nazrul</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
@@ -5628,7 +5620,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D259" s="4" t="inlineStr">
+      <c r="D259" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5636,11 +5628,11 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>Haieder Ali</t>
+          <t>Nadim</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
@@ -5648,7 +5640,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D260" s="4" t="inlineStr">
+      <c r="D260" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5656,11 +5648,11 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>Samsul Alam</t>
+          <t>Rukshana Pervin</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
@@ -5668,7 +5660,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D261" s="4" t="inlineStr">
+      <c r="D261" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5676,11 +5668,11 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>Firoj Nazrul</t>
+          <t>Ruhul Amin</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
@@ -5688,7 +5680,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D262" s="4" t="inlineStr">
+      <c r="D262" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5696,11 +5688,11 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>Nadim</t>
+          <t>Fuljuri Khatun</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
@@ -5708,7 +5700,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D263" s="4" t="inlineStr">
+      <c r="D263" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5716,11 +5708,11 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rukshana Pervin </t>
+          <t>Tajmira Islam</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
@@ -5728,7 +5720,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D264" s="4" t="inlineStr">
+      <c r="D264" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5736,11 +5728,11 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>Ruhul Amin</t>
+          <t>Mizanur Rahman</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
@@ -5748,7 +5740,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D265" s="4" t="inlineStr">
+      <c r="D265" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5756,11 +5748,11 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>Fuljuri Khatun</t>
+          <t>Sabbir Reza</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
@@ -5768,7 +5760,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D266" s="4" t="inlineStr">
+      <c r="D266" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5776,11 +5768,11 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>Tajmira Islam</t>
+          <t>Md Ariful Islm</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
@@ -5788,7 +5780,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D267" s="4" t="inlineStr">
+      <c r="D267" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5796,11 +5788,11 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>Mizanur Rahman</t>
+          <t>Palash Mahmud</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
@@ -5808,7 +5800,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D268" s="4" t="inlineStr">
+      <c r="D268" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5816,11 +5808,11 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>Sabbir Reza</t>
+          <t>Sabina Khatun</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
@@ -5828,7 +5820,7 @@
           <t>Afsha Khatun</t>
         </is>
       </c>
-      <c r="D269" s="4" t="inlineStr">
+      <c r="D269" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5836,19 +5828,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>Md Ariful Islm</t>
+          <t>Aazma Farooq Pasrur</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
-        </is>
-      </c>
-      <c r="D270" s="4" t="inlineStr">
+          <t>Kaneez Fatima</t>
+        </is>
+      </c>
+      <c r="D270" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5856,19 +5848,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>Polash Mahmud</t>
+          <t>Madiha Siddiqui</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
-        </is>
-      </c>
-      <c r="D271" s="4" t="inlineStr">
+          <t>Kaneez Fatima</t>
+        </is>
+      </c>
+      <c r="D271" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5876,19 +5868,19 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>Sabina Khatun</t>
+          <t>Shakeela Mudasir</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
-        </is>
-      </c>
-      <c r="D272" s="4" t="inlineStr">
+          <t>Kaneez Fatima</t>
+        </is>
+      </c>
+      <c r="D272" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5896,11 +5888,11 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aazma Farooq </t>
+          <t>Gautam India</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
@@ -5908,7 +5900,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D273" s="4" t="inlineStr">
+      <c r="D273" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5916,11 +5908,11 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madiha Siddiqui </t>
+          <t>Kanwal Farhan HYD Pak</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
@@ -5928,7 +5920,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D274" s="4" t="inlineStr">
+      <c r="D274" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5936,11 +5928,11 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shakeela Mudasir </t>
+          <t>Amna Rafiq</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
@@ -5948,7 +5940,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D275" s="4" t="inlineStr">
+      <c r="D275" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5956,11 +5948,11 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>Gautam</t>
+          <t>Mahrukh irfan Gohar</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
@@ -5968,7 +5960,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D276" s="4" t="inlineStr">
+      <c r="D276" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5976,11 +5968,11 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>Kanwal�Farhan</t>
+          <t>Shazia A.Razaq Mirpur Khas Pak</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
@@ -5988,7 +5980,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D277" s="4" t="inlineStr">
+      <c r="D277" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -5996,11 +5988,11 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amna Rafiq </t>
+          <t>Samina Wahab</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
@@ -6008,7 +6000,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D278" s="4" t="inlineStr">
+      <c r="D278" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6016,11 +6008,11 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan Gohar</t>
+          <t>Shahenshah Haidar</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
@@ -6028,7 +6020,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D279" s="4" t="inlineStr">
+      <c r="D279" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6036,11 +6028,11 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>Shazia A.Razaq</t>
+          <t>Yasmeen Abid</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
@@ -6048,7 +6040,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D280" s="4" t="inlineStr">
+      <c r="D280" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6056,11 +6048,11 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>Samina Wahab</t>
+          <t>Ashfaque</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -6068,7 +6060,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D281" s="4" t="inlineStr">
+      <c r="D281" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6076,12 +6068,11 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shahenshah Haidar 
-</t>
+          <t>Ali Gohar</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
@@ -6089,7 +6080,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D282" s="4" t="inlineStr">
+      <c r="D282" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6097,11 +6088,11 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yasmeen Abid </t>
+          <t>Memona Rizvi</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
@@ -6109,7 +6100,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D283" s="4" t="inlineStr">
+      <c r="D283" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6117,11 +6108,11 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ashfaque </t>
+          <t>Qamar Un Nisa (Pak)</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
@@ -6129,7 +6120,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D284" s="4" t="inlineStr">
+      <c r="D284" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6137,11 +6128,11 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>Ali Gohar</t>
+          <t>Aneela Memon</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
@@ -6149,7 +6140,7 @@
           <t>Kaneez Fatima</t>
         </is>
       </c>
-      <c r="D285" s="4" t="inlineStr">
+      <c r="D285" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6157,19 +6148,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>Memona Rizvi</t>
+          <t>Reshma Khan</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
-        </is>
-      </c>
-      <c r="D286" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D286" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6177,19 +6168,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>Qamar Un Nisa</t>
+          <t>Firdaush Khan</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
-        </is>
-      </c>
-      <c r="D287" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D287" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6197,19 +6188,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>Aneela Memon</t>
+          <t>Noor Jahan</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
-        </is>
-      </c>
-      <c r="D288" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D288" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6217,19 +6208,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reshma Khan </t>
+          <t>Rabeka Khanam</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D289" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D289" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6237,19 +6228,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Firdaush Khan </t>
+          <t>Shamsheeda Bughum</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D290" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D290" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6257,19 +6248,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>Noor Jahan</t>
+          <t>Zeba Ansari</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D291" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D291" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6277,19 +6268,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rabeka Khanam </t>
+          <t>Saba Ansari</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D292" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D292" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6297,20 +6288,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shamsheeda Bughum
-</t>
+          <t>Neha Naaz</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D293" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D293" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6318,19 +6308,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>Zeba Ansari</t>
+          <t>Fathima Sani</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D294" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D294" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6338,20 +6328,19 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saba Ansari
-</t>
+          <t>Parbin mallick</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D295" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D295" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6359,19 +6348,19 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>Neha Naaz</t>
+          <t>Shahida</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D296" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D296" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6379,19 +6368,19 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fathima Sani </t>
+          <t>Naseem Afreen</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D297" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D297" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6399,19 +6388,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>Parbin Mallick</t>
+          <t>Zaiba Faruque Shaikh</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D298" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D298" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6419,19 +6408,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>Shahida</t>
+          <t>Sameena Taj , Mysor</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D299" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D299" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6439,19 +6428,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naseem Afreen </t>
+          <t>Rafia Beghum</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D300" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D300" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6459,19 +6448,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>Zaiba Faruque Shaikh</t>
+          <t>Shamim Shaikh</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D301" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D301" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6479,19 +6468,19 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>Sameena Taj</t>
+          <t>Afreen parvez</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D302" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D302" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6499,20 +6488,19 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rafia Beghum
-</t>
+          <t>Sabreen Khan</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D303" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D303" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6520,19 +6508,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>Shamim Shaikh</t>
+          <t>Naheeda anjum</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D304" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D304" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6540,19 +6528,19 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>Afreen Parvez</t>
+          <t>Dr smita shete India</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D305" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D305" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6560,19 +6548,19 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Khan</t>
+          <t>Momina H M</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D306" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D306" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6580,19 +6568,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>Naheeda Anjum</t>
+          <t>Iram Bhabi</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D307" s="4" t="inlineStr">
+          <t>Amirah Didi</t>
+        </is>
+      </c>
+      <c r="D307" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6600,19 +6588,19 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>Dr Smita Shete</t>
+          <t>Sajjad Ali Abbasi</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D308" s="4" t="inlineStr">
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D308" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6620,19 +6608,19 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>Momina H M</t>
+          <t>Hassan Abid</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D309" s="4" t="inlineStr">
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D309" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6640,19 +6628,19 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Iram Irfan           </t>
+          <t>Shafeeq Abid</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan/Amirah</t>
-        </is>
-      </c>
-      <c r="D310" s="4" t="inlineStr">
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D310" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6660,11 +6648,11 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>Sajjad Ali Abbasi</t>
+          <t>Siraj Munir</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
@@ -6672,7 +6660,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D311" s="4" t="inlineStr">
+      <c r="D311" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6680,11 +6668,11 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>Hassan Abid</t>
+          <t>Abdul Latif</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
@@ -6692,7 +6680,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D312" s="4" t="inlineStr">
+      <c r="D312" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6700,11 +6688,11 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shafeeq Abid </t>
+          <t>Ali Rehman Lahore</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
@@ -6712,7 +6700,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D313" s="4" t="inlineStr">
+      <c r="D313" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6720,11 +6708,11 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>Siraj Munir</t>
+          <t>Ejaz Ali Mirpur Mathelo</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
@@ -6732,7 +6720,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D314" s="4" t="inlineStr">
+      <c r="D314" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6740,11 +6728,11 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>Abdul Latif�</t>
+          <t>M Zaid LHR Pak</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
@@ -6752,7 +6740,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D315" s="4" t="inlineStr">
+      <c r="D315" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6760,11 +6748,11 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ali Rehman </t>
+          <t>Ataa arshad KCH Pak</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
@@ -6772,7 +6760,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D316" s="4" t="inlineStr">
+      <c r="D316" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6780,11 +6768,11 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>Ejaz Ali</t>
+          <t>Sharafuddin Chandio</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
@@ -6792,7 +6780,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D317" s="4" t="inlineStr">
+      <c r="D317" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6800,11 +6788,11 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>M Zaid</t>
+          <t>Saud Bhai</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
@@ -6812,7 +6800,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D318" s="4" t="inlineStr">
+      <c r="D318" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6820,11 +6808,11 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>Ataa Arshad</t>
+          <t>Qamar Ali depalpur</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
@@ -6832,7 +6820,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D319" s="4" t="inlineStr">
+      <c r="D319" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6840,11 +6828,11 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sharafuddin Chandio </t>
+          <t>Muhib Sakhi</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
@@ -6852,7 +6840,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D320" s="4" t="inlineStr">
+      <c r="D320" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6860,11 +6848,11 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saud </t>
+          <t>Ali Afzal</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
@@ -6872,7 +6860,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D321" s="4" t="inlineStr">
+      <c r="D321" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6880,11 +6868,11 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Qamar Ali </t>
+          <t>Yousuf KCH</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
@@ -6892,7 +6880,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D322" s="4" t="inlineStr">
+      <c r="D322" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6900,11 +6888,11 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muhib Sakhi </t>
+          <t>Talha Farooq</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
@@ -6912,7 +6900,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D323" s="4" t="inlineStr">
+      <c r="D323" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6920,11 +6908,11 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>Ali Afzal</t>
+          <t>Danish Gohar</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
@@ -6932,7 +6920,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D324" s="4" t="inlineStr">
+      <c r="D324" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6940,11 +6928,11 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yousuf  </t>
+          <t>Sohail abbas Bhaker</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
@@ -6952,7 +6940,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D325" s="4" t="inlineStr">
+      <c r="D325" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6960,11 +6948,11 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Talha Farooq </t>
+          <t>Ather ansari</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
@@ -6972,7 +6960,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D326" s="4" t="inlineStr">
+      <c r="D326" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -6980,11 +6968,11 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>Danish Gohar</t>
+          <t>kashif ali</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
@@ -6992,7 +6980,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D327" s="4" t="inlineStr">
+      <c r="D327" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7000,11 +6988,11 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>Sohail Abbas Bhaker</t>
+          <t>Azeem nadeem Qasoor</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
@@ -7012,7 +7000,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D328" s="4" t="inlineStr">
+      <c r="D328" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7020,11 +7008,11 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>Ather Ansari</t>
+          <t>Junaid Mandi bahauddin</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
@@ -7032,7 +7020,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D329" s="4" t="inlineStr">
+      <c r="D329" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7040,11 +7028,11 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>Kashif Ali</t>
+          <t>Muhammad Imtiaz</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
@@ -7052,7 +7040,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D330" s="4" t="inlineStr">
+      <c r="D330" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7060,11 +7048,11 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azeem Nadeem </t>
+          <t>Yaseer Uncle Saudia</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
@@ -7072,7 +7060,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D331" s="4" t="inlineStr">
+      <c r="D331" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7080,11 +7068,11 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>Junaid</t>
+          <t>Arsalan Ali Lahore</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
@@ -7092,7 +7080,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D332" s="4" t="inlineStr">
+      <c r="D332" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7100,11 +7088,11 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muhammad Imtiaz	</t>
+          <t>Hafiz amir</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
@@ -7112,7 +7100,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D333" s="4" t="inlineStr">
+      <c r="D333" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7120,11 +7108,11 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>Yaseer</t>
+          <t>Muhammad Talha Sajid</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
@@ -7132,7 +7120,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D334" s="4" t="inlineStr">
+      <c r="D334" s="3" t="inlineStr">
         <is>
           <t>Not Submitted</t>
         </is>
@@ -7140,11 +7128,11 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>Arsalan Ali</t>
+          <t>Saqlain yasin</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
@@ -7154,17 +7142,17 @@
       </c>
       <c r="D335" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hafiz Amir </t>
+          <t>Ali Hamza</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
@@ -7174,17 +7162,17 @@
       </c>
       <c r="D336" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Talha Sajid</t>
+          <t>Ali Javaid</t>
         </is>
       </c>
       <c r="C337" s="2" t="inlineStr">
@@ -7194,17 +7182,17 @@
       </c>
       <c r="D337" s="4" t="inlineStr">
         <is>
-          <t>Not Submitted</t>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>Saqlain Yasin</t>
+          <t>Ahmad Raza</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
@@ -7212,7 +7200,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D338" s="3" t="inlineStr">
+      <c r="D338" s="4" t="inlineStr">
         <is>
           <t>Submitted</t>
         </is>
@@ -7220,11 +7208,11 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>Ali Hamza</t>
+          <t>Nasir AlGohar</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
@@ -7232,7 +7220,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D339" s="3" t="inlineStr">
+      <c r="D339" s="4" t="inlineStr">
         <is>
           <t>Submitted</t>
         </is>
@@ -7240,11 +7228,11 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ali Javaid </t>
+          <t>Fida Uncle</t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr">
@@ -7252,7 +7240,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D340" s="3" t="inlineStr">
+      <c r="D340" s="4" t="inlineStr">
         <is>
           <t>Submitted</t>
         </is>
@@ -7260,11 +7248,11 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>Ahmad Raza</t>
+          <t>Ali Hamza</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
@@ -7272,7 +7260,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D341" s="3" t="inlineStr">
+      <c r="D341" s="4" t="inlineStr">
         <is>
           <t>Submitted</t>
         </is>
@@ -7280,11 +7268,11 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>Nasir Algohar</t>
+          <t>Imran babar</t>
         </is>
       </c>
       <c r="C342" s="2" t="inlineStr">
@@ -7292,7 +7280,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D342" s="3" t="inlineStr">
+      <c r="D342" s="4" t="inlineStr">
         <is>
           <t>Submitted</t>
         </is>
@@ -7300,11 +7288,11 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fida </t>
+          <t>Bilal Qasim</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr">
@@ -7312,7 +7300,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D343" s="3" t="inlineStr">
+      <c r="D343" s="4" t="inlineStr">
         <is>
           <t>Submitted</t>
         </is>
@@ -7320,11 +7308,11 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ali Hamza </t>
+          <t>Fayaz</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr">
@@ -7332,7 +7320,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D344" s="3" t="inlineStr">
+      <c r="D344" s="4" t="inlineStr">
         <is>
           <t>Submitted</t>
         </is>
@@ -7340,11 +7328,11 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>Imran Babar</t>
+          <t>Sabir ali</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
@@ -7352,7 +7340,7 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D345" s="3" t="inlineStr">
+      <c r="D345" s="4" t="inlineStr">
         <is>
           <t>Submitted</t>
         </is>
@@ -7360,21 +7348,541 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>Bilal Qasim</t>
+          <t>MD Siam</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr">
         <is>
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D346" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B347" s="2" t="inlineStr">
+        <is>
+          <t>Sayed Waqas</t>
+        </is>
+      </c>
+      <c r="C347" s="2" t="inlineStr">
+        <is>
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D346" s="3" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D347" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>1381</v>
+      </c>
+      <c r="B348" s="2" t="inlineStr">
+        <is>
+          <t>M Imam</t>
+        </is>
+      </c>
+      <c r="C348" s="2" t="inlineStr">
+        <is>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D348" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>1382</v>
+      </c>
+      <c r="B349" s="2" t="inlineStr">
+        <is>
+          <t>MD afif</t>
+        </is>
+      </c>
+      <c r="C349" s="2" t="inlineStr">
+        <is>
+          <t>Jamaal ali</t>
+        </is>
+      </c>
+      <c r="D349" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>1383</v>
+      </c>
+      <c r="B350" s="2" t="inlineStr">
+        <is>
+          <t>Saira Tabasam</t>
+        </is>
+      </c>
+      <c r="C350" s="2" t="inlineStr">
+        <is>
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D350" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>1384</v>
+      </c>
+      <c r="B351" s="2" t="inlineStr">
+        <is>
+          <t>SHAHID ALAM</t>
+        </is>
+      </c>
+      <c r="C351" s="2" t="inlineStr">
+        <is>
+          <t>Jamaal ali</t>
+        </is>
+      </c>
+      <c r="D351" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>1385</v>
+      </c>
+      <c r="B352" s="2" t="inlineStr">
+        <is>
+          <t>Waleed raaz</t>
+        </is>
+      </c>
+      <c r="C352" s="2" t="inlineStr">
+        <is>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D352" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>1386</v>
+      </c>
+      <c r="B353" s="2" t="inlineStr">
+        <is>
+          <t>Areej shehwar</t>
+        </is>
+      </c>
+      <c r="C353" s="2" t="inlineStr">
+        <is>
+          <t>Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D353" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>1387</v>
+      </c>
+      <c r="B354" s="2" t="inlineStr">
+        <is>
+          <t>Awais Qarnain</t>
+        </is>
+      </c>
+      <c r="C354" s="2" t="inlineStr">
+        <is>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D354" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>1388</v>
+      </c>
+      <c r="B355" s="2" t="inlineStr">
+        <is>
+          <t>Rayees Qayoom</t>
+        </is>
+      </c>
+      <c r="C355" s="2" t="inlineStr">
+        <is>
+          <t>Jamaal ali</t>
+        </is>
+      </c>
+      <c r="D355" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>1389</v>
+      </c>
+      <c r="B356" s="2" t="inlineStr">
+        <is>
+          <t>Saba Ansari</t>
+        </is>
+      </c>
+      <c r="C356" s="2" t="inlineStr">
+        <is>
+          <t>Amirah Kushboo</t>
+        </is>
+      </c>
+      <c r="D356" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B357" s="2" t="inlineStr">
+        <is>
+          <t>FAIZUL HAQ</t>
+        </is>
+      </c>
+      <c r="C357" s="2" t="inlineStr">
+        <is>
+          <t>Jamaal ali</t>
+        </is>
+      </c>
+      <c r="D357" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>1391</v>
+      </c>
+      <c r="B358" s="2" t="inlineStr">
+        <is>
+          <t>Mahrukh Irfan</t>
+        </is>
+      </c>
+      <c r="C358" s="2" t="inlineStr">
+        <is>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D358" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>1394</v>
+      </c>
+      <c r="B359" s="2" t="inlineStr">
+        <is>
+          <t>Saad khalid</t>
+        </is>
+      </c>
+      <c r="C359" s="2" t="inlineStr">
+        <is>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D359" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B360" s="2" t="inlineStr">
+        <is>
+          <t>Waleed Raaz</t>
+        </is>
+      </c>
+      <c r="C360" s="2" t="inlineStr">
+        <is>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D360" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>1396</v>
+      </c>
+      <c r="B361" s="2" t="inlineStr">
+        <is>
+          <t>MD Munir rabnawaz</t>
+        </is>
+      </c>
+      <c r="C361" s="2" t="inlineStr">
+        <is>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D361" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>1399</v>
+      </c>
+      <c r="B362" s="2" t="inlineStr">
+        <is>
+          <t>Iram Irfan</t>
+        </is>
+      </c>
+      <c r="C362" s="2" t="inlineStr">
+        <is>
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D362" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B363" s="2" t="inlineStr">
+        <is>
+          <t>Shaheen Gulam Nabi</t>
+        </is>
+      </c>
+      <c r="C363" s="2" t="inlineStr">
+        <is>
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D363" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>1401</v>
+      </c>
+      <c r="B364" s="2" t="inlineStr">
+        <is>
+          <t>Javeria Gulam Nabi</t>
+        </is>
+      </c>
+      <c r="C364" s="2" t="inlineStr">
+        <is>
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D364" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B365" s="2" t="inlineStr">
+        <is>
+          <t>Shazia mushtaq</t>
+        </is>
+      </c>
+      <c r="C365" s="2" t="inlineStr">
+        <is>
+          <t>Mahnoor Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="D365" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>1405</v>
+      </c>
+      <c r="B366" s="2" t="inlineStr">
+        <is>
+          <t>Rukhshana khatoon</t>
+        </is>
+      </c>
+      <c r="C366" s="2" t="inlineStr">
+        <is>
+          <t>Amirah Kushboo</t>
+        </is>
+      </c>
+      <c r="D366" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>1406</v>
+      </c>
+      <c r="B367" s="2" t="inlineStr">
+        <is>
+          <t>Asia Saleem</t>
+        </is>
+      </c>
+      <c r="C367" s="2" t="inlineStr">
+        <is>
+          <t>Mishaal Farhan</t>
+        </is>
+      </c>
+      <c r="D367" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>1407</v>
+      </c>
+      <c r="B368" s="2" t="inlineStr">
+        <is>
+          <t>Sidra perween</t>
+        </is>
+      </c>
+      <c r="C368" s="2" t="inlineStr">
+        <is>
+          <t>Mishaal Farhan</t>
+        </is>
+      </c>
+      <c r="D368" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>1409</v>
+      </c>
+      <c r="B369" s="2" t="inlineStr">
+        <is>
+          <t>Saira Tabasam</t>
+        </is>
+      </c>
+      <c r="C369" s="2" t="inlineStr">
+        <is>
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D369" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B370" s="2" t="inlineStr">
+        <is>
+          <t>Maria Usman</t>
+        </is>
+      </c>
+      <c r="C370" s="2" t="inlineStr">
+        <is>
+          <t>Mahrukh Gohar</t>
+        </is>
+      </c>
+      <c r="D370" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>1412</v>
+      </c>
+      <c r="B371" s="2" t="inlineStr">
+        <is>
+          <t>Hasan Mollik</t>
+        </is>
+      </c>
+      <c r="C371" s="2" t="inlineStr">
+        <is>
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D371" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>1417</v>
+      </c>
+      <c r="B372" s="2" t="inlineStr">
+        <is>
+          <t>Fardous Talukdar</t>
+        </is>
+      </c>
+      <c r="C372" s="2" t="inlineStr">
+        <is>
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="D372" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>

--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -592,16 +592,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>1007</v>
+        <v>1406</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Samra Basharat</t>
+          <t>Asia Saleem</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mishaal Farhan</t>
+          <t>Mishaal Farhan</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Emaan Rafiq</t>
+          <t>Samra Basharat</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -632,16 +632,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>1009</v>
+        <v>1407</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Farzana Imran Gujarat PK</t>
+          <t>Sidra perween</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mishaal Farhan</t>
+          <t>Mishaal Farhan</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -652,11 +652,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Shazia Saeed</t>
+          <t>Emaan Rafiq</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -672,11 +672,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Ayesha Siddiqia</t>
+          <t>Farzana Imran Gujarat PK</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -684,19 +684,19 @@
           <t xml:space="preserve"> Mishaal Farhan</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Aqsa Mushtaq</t>
+          <t>Shazia Saeed</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -704,24 +704,24 @@
           <t xml:space="preserve"> Mishaal Farhan</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Zubeda Yaqoob</t>
+          <t>Ayesha Siddiqia</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
+          <t xml:space="preserve"> Mishaal Farhan</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
@@ -732,16 +732,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Mahjbeen Kashif</t>
+          <t>Aqsa Mushtaq</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nadia Yaqoob</t>
+          <t xml:space="preserve"> Mishaal Farhan</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
@@ -752,11 +752,11 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Zenab Irshad Korangi Pak</t>
+          <t>Zubeda Yaqoob</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -772,11 +772,11 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Bisma Irshd Korangi</t>
+          <t>Mahjbeen Kashif</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -792,11 +792,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Shugufta Qasoor</t>
+          <t>Zenab Irshad Korangi Pak</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -812,11 +812,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Sobia Baji KCH</t>
+          <t>Bisma Irshd Korangi</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -824,19 +824,19 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Rifat Ahmad USA</t>
+          <t>Shugufta Qasoor</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -844,19 +844,19 @@
           <t>Nadia Yaqoob</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Bano Fayaz</t>
+          <t>Sobia Baji KCH</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -872,11 +872,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Nazia Aleem Pak</t>
+          <t>Rifat Ahmad USA</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -892,11 +892,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Fozia Tariq</t>
+          <t>Bano Fayaz</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -912,11 +912,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Hira Mansha</t>
+          <t>Nazia Aleem Pak</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -932,11 +932,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Humera Shafiq</t>
+          <t>Fozia Tariq</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -952,11 +952,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Hamna Pk</t>
+          <t>Hira Mansha</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -972,11 +972,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Bisma Batool Amjad</t>
+          <t>Humera Shafiq</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -992,11 +992,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Shazia Haee</t>
+          <t>Hamna Pk</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1012,11 +1012,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Kosar Fatima</t>
+          <t>Bisma Batool Amjad</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1032,11 +1032,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Mohebba safdar</t>
+          <t>Shazia Haee</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1052,11 +1052,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Musarat Afzal</t>
+          <t>Kosar Fatima</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1072,11 +1072,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Afreen Yaqoob</t>
+          <t>Mohebba safdar</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1092,11 +1092,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Farah</t>
+          <t>Musarat Afzal</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1112,11 +1112,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Shabana Baji USA</t>
+          <t>Afreen Yaqoob</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1132,16 +1132,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Sadia Adnan</t>
+          <t>Farah</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Mahnoor Khadim Hussain</t>
+          <t>Nadia Yaqoob</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1152,31 +1152,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Samina Fiaz</t>
+          <t>Shabana Baji USA</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Mahnoor Khadim Hussain</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+          <t>Nadia Yaqoob</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Asma Jawed</t>
+          <t>Sadia Adnan</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1184,19 +1184,19 @@
           <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Ayesha Mushtaq Pak</t>
+          <t>Samina Fiaz</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1212,11 +1212,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Faryal Khadim Hussain</t>
+          <t>Asma Jawed</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1232,11 +1232,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>1039</v>
+        <v>1403</v>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Sughra Baji Bhawal Nagar</t>
+          <t>Shazia mushtaq</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1244,19 +1244,19 @@
           <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>1040</v>
+        <v>1386</v>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Rafia Khadim Hussain</t>
+          <t>Areej shehwar</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -1272,11 +1272,11 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Baji FSD Pak</t>
+          <t>Ayesha Mushtaq Pak</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1284,19 +1284,19 @@
           <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Shantul Junaid</t>
+          <t>Faryal Khadim Hussain</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1304,19 +1304,19 @@
           <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Rubab Mir</t>
+          <t>Sughra Baji Bhawal Nagar</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1324,19 +1324,19 @@
           <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Saba Yasir Gojra PK</t>
+          <t>Rafia Khadim Hussain</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1352,11 +1352,11 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Samina Nadeem SKP</t>
+          <t>Kalsoom Baji FSD Pak</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1372,11 +1372,11 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Zoobi Baji Gujranwala</t>
+          <t>Shantul Junaid</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1392,11 +1392,11 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Zulekha Mirjat</t>
+          <t>Rubab Mir</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1412,16 +1412,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Alisha kanwal</t>
+          <t>Saba Yasir Gojra PK</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
+          <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -1432,16 +1432,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Ambreen Riaz</t>
+          <t>Samina Nadeem SKP</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
+          <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -1452,16 +1452,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Fozia Rafiq</t>
+          <t>Zoobi Baji Gujranwala</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
+          <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -1472,16 +1472,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Anjeela Basharat</t>
+          <t>Zulekha Mirjat</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
+          <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -1492,11 +1492,11 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Asia Ijaz</t>
+          <t>Alisha kanwal</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1512,11 +1512,11 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Amna Rashid</t>
+          <t>Ambreen Riaz</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1532,9 +1532,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>1054</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr"/>
+        <v>1050</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Fozia Rafiq</t>
+        </is>
+      </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
           <t>Amna Rafiq</t>
@@ -1548,11 +1552,11 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Bushra Farooq</t>
+          <t>Anjeela Basharat</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1568,11 +1572,11 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Tahira Nazish sgy</t>
+          <t>Asia Ijaz</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1588,11 +1592,11 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Hareem Altaf</t>
+          <t>Amna Rashid</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1608,13 +1612,9 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>1058</v>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>Amna Noor</t>
-        </is>
-      </c>
+        <v>1054</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Amna Rafiq</t>
@@ -1628,11 +1628,11 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Falak Naaz</t>
+          <t>Bushra Farooq</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1648,11 +1648,11 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Iqra Khalid</t>
+          <t>Tahira Nazish sgy</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1668,16 +1668,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Mahnoor Khadim Hussain</t>
+          <t>Hareem Altaf</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
+          <t>Amna Rafiq</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -1688,16 +1688,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Farzana Nargis</t>
+          <t>Amna Noor</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
+          <t>Amna Rafiq</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -1708,16 +1708,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Mubeena Munir</t>
+          <t>Falak Naaz</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
+          <t>Amna Rafiq</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -1728,16 +1728,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Zainab Faizan</t>
+          <t>Iqra Khalid</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
+          <t>Amna Rafiq</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -1748,11 +1748,11 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Rukaya riayaz</t>
+          <t>Mahnoor Khadim Hussain</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -1768,11 +1768,11 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Quratulain Mian Wali Pak</t>
+          <t>Farzana Nargis</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1788,11 +1788,11 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Ume Hadia</t>
+          <t>Mubeena Munir</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1808,11 +1808,11 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>maliha Khalid</t>
+          <t>Zainab Faizan</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1828,11 +1828,11 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Rahila Shoaib</t>
+          <t>Rukaya riayaz</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1848,11 +1848,11 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Sumera kashif</t>
+          <t>Quratulain Mian Wali Pak</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1868,11 +1868,11 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Aisha Imran</t>
+          <t>Ume Hadia</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -1888,11 +1888,11 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>samra Qasim</t>
+          <t>maliha Khalid</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1908,11 +1908,11 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Nadia Gohar</t>
+          <t>Rahila Shoaib</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1928,11 +1928,11 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Rani Raza</t>
+          <t>Sumera kashif</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1948,11 +1948,11 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Naseem Fida Hussain</t>
+          <t>Aisha Imran</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -1968,16 +1968,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Rahat Usman</t>
+          <t>samra Qasim</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
+          <t>Sadia Ismail</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -1988,16 +1988,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Rehana Umer</t>
+          <t>Nadia Gohar</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
+          <t>Sadia Ismail</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -2008,16 +2008,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Sehar Abid</t>
+          <t>Rani Raza</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
+          <t>Sadia Ismail</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -2028,16 +2028,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Shanza Sabir</t>
+          <t>Naseem Fida Hussain</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Eman Rafiq</t>
+          <t>Sadia Ismail</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -2048,11 +2048,11 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Parwisha Raees</t>
+          <t>Rahat Usman</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -2068,11 +2068,11 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Shaziya Khatoon</t>
+          <t>Rehana Umer</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -2088,11 +2088,11 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Huram Fatima</t>
+          <t>Sehar Abid</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -2108,11 +2108,11 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Rifat Raza</t>
+          <t>Shanza Sabir</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -2128,11 +2128,11 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>Mafiya Aslam</t>
+          <t>Parwisha Raees</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -2148,11 +2148,11 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Shakeela Taj (Australia)</t>
+          <t>Shaziya Khatoon</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -2168,11 +2168,11 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>Tahira Tabassum</t>
+          <t>Huram Fatima</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -2188,11 +2188,11 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Iqra Shahzaib</t>
+          <t>Rifat Raza</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -2208,16 +2208,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>Tasheen Shahi</t>
+          <t>Mafiya Aslam</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
+          <t>Eman Rafiq</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -2228,16 +2228,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Zahida Shahi</t>
+          <t>Shakeela Taj (Australia)</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
+          <t>Eman Rafiq</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -2248,16 +2248,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>Zenab Jamila</t>
+          <t>Tahira Tabassum</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
+          <t>Eman Rafiq</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -2268,16 +2268,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Zoubiya Aqil</t>
+          <t>Iqra Shahzaib</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Savaira Gohar</t>
+          <t>Eman Rafiq</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
@@ -2288,11 +2288,11 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>Zunaira Afzal</t>
+          <t>Tasheen Shahi</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2308,11 +2308,11 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Shiza Junaid</t>
+          <t>Zahida Shahi</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2328,11 +2328,11 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>Naheed Kashif</t>
+          <t>Zenab Jamila</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2348,11 +2348,11 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Nazia Sattar</t>
+          <t>Zoubiya Aqil</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2368,11 +2368,11 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Zunaira Afzal</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2388,11 +2388,11 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Amina Khatoon</t>
+          <t>Shiza Junaid</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2408,11 +2408,11 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>Farah Hussain</t>
+          <t>Naheed Kashif</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2428,11 +2428,11 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Kiran Shahi</t>
+          <t>Nazia Sattar</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2448,11 +2448,11 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>Faryal Qayyum</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -2468,11 +2468,11 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Noreen Amjad</t>
+          <t>Amina Khatoon</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -2488,16 +2488,16 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>Amaira Rehman</t>
+          <t>Farah Hussain</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Gohar</t>
+          <t>Savaira Gohar</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -2508,16 +2508,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Amra Boota</t>
+          <t>Kiran Shahi</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Gohar</t>
+          <t>Savaira Gohar</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -2528,16 +2528,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>Andaleeb Nayar azam</t>
+          <t>Faryal Qayyum</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Gohar</t>
+          <t>Savaira Gohar</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -2548,16 +2548,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Bushra liaqat</t>
+          <t>Noreen Amjad</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Gohar</t>
+          <t>Savaira Gohar</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -2568,11 +2568,11 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>Dr. Fozia naeem</t>
+          <t>Amaira Rehman</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2588,11 +2588,11 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Erum Rasheed</t>
+          <t>Amra Boota</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2608,11 +2608,11 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>Fariha Imran</t>
+          <t>Andaleeb Nayar azam</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2628,11 +2628,11 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Farzana jabbar</t>
+          <t>Bushra liaqat</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -2648,11 +2648,11 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>Hafsa Farooq</t>
+          <t>Dr. Fozia naeem</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2668,11 +2668,11 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Muskan Aunti</t>
+          <t>Erum Rasheed</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2688,11 +2688,11 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>Kousar Irfan</t>
+          <t>Fariha Imran</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2708,11 +2708,11 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Kalsoom Aurangzaib</t>
+          <t>Farzana jabbar</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2728,11 +2728,11 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>Maila Raina</t>
+          <t>Hafsa Farooq</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2748,11 +2748,11 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>Malaika Bburt</t>
+          <t>Muskan Aunti</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2768,11 +2768,11 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>Mehwish mushtaq</t>
+          <t>Kousar Irfan</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2788,11 +2788,11 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>1117</v>
+        <v>1383</v>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>Nadia Liaquat</t>
+          <t>Saira Tabasam</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -2808,11 +2808,11 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>1118</v>
+        <v>1399</v>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>Nargis</t>
+          <t>Iram Irfan</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -2828,11 +2828,11 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>1119</v>
+        <v>1400</v>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>Nazia Norin</t>
+          <t>Shaheen Gulam Nabi</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -2848,11 +2848,11 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>1120</v>
+        <v>1401</v>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>Rimsha Bashir</t>
+          <t>Javeria Gulam Nabi</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -2868,11 +2868,11 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>1121</v>
+        <v>1409</v>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Sadia Ismail</t>
+          <t>Saira Tabasam</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -2888,11 +2888,11 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>1122</v>
+        <v>1410</v>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>Saima Wariyam</t>
+          <t>Maria Usman</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -2908,11 +2908,11 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>Sakina zakir</t>
+          <t>Kalsoom Aurangzaib</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -2928,11 +2928,11 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>Samina farman</t>
+          <t>Maila Raina</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -2948,11 +2948,11 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>Sana Manzoor</t>
+          <t>Malaika Bburt</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -2968,11 +2968,11 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>Sana Shahbaz</t>
+          <t>Mehwish mushtaq</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -2988,11 +2988,11 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>Shagufta Ibrahim</t>
+          <t>Nadia Liaquat</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -3008,11 +3008,11 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>Shama Malik</t>
+          <t>Nargis</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -3028,11 +3028,11 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>Sobia Imran</t>
+          <t>Nazia Norin</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -3048,11 +3048,11 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>Tahira Sajjad</t>
+          <t>Rimsha Bashir</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -3068,11 +3068,11 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>Tayyaba Shahzadi</t>
+          <t>Sadia Ismail</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -3088,16 +3088,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>Tausif Anwar Kolkata</t>
+          <t>Saima Wariyam</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamaal Ali </t>
+          <t>Mahrukh Gohar</t>
         </is>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -3108,16 +3108,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>Sabir tarefdar Kolkata</t>
+          <t>Sakina zakir</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamaal Ali </t>
+          <t>Mahrukh Gohar</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -3128,16 +3128,16 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>Sohab Afser Kolkata</t>
+          <t>Samina farman</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamaal Ali </t>
+          <t>Mahrukh Gohar</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -3148,16 +3148,16 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>Ashik mondal Kolkata</t>
+          <t>Sana Manzoor</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamaal Ali </t>
+          <t>Mahrukh Gohar</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -3168,16 +3168,16 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>Ibrar Ahmed Kolkata</t>
+          <t>Sana Shahbaz</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamaal Ali </t>
+          <t>Mahrukh Gohar</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -3188,16 +3188,16 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>Sk Nazir Hussain Kolkata</t>
+          <t>Shagufta Ibrahim</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamaal Ali </t>
+          <t>Mahrukh Gohar</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -3208,16 +3208,16 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>Anwar Hussain Kolkata</t>
+          <t>Shama Malik</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamaal Ali </t>
+          <t>Mahrukh Gohar</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -3228,16 +3228,16 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>Zeeshan Shafique Dubai</t>
+          <t>Sobia Imran</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamaal Ali </t>
+          <t>Mahrukh Gohar</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -3248,16 +3248,16 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>MOHAMMAD SHAHID ALAM</t>
+          <t>Tahira Sajjad</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamaal Ali </t>
+          <t>Mahrukh Gohar</t>
         </is>
       </c>
       <c r="D141" s="3" t="inlineStr">
@@ -3268,16 +3268,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>MOHAMMED ZAINUL ABEDIN ALAM</t>
+          <t>Tayyaba Shahzadi</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jamaal Ali </t>
+          <t>Mahrukh Gohar</t>
         </is>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -3288,11 +3288,11 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>Md wasim, Kolkata</t>
+          <t>Tausif Anwar Kolkata</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
@@ -3308,11 +3308,11 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>Mohammad kaif, Kolkata</t>
+          <t>Sabir tarefdar Kolkata</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
@@ -3328,11 +3328,11 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>Syed zarar mehdi Kolkata</t>
+          <t>Sohab Afser Kolkata</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
@@ -3348,11 +3348,11 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>Tahir shaikh Mumbai India</t>
+          <t>Ashik mondal Kolkata</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -3368,11 +3368,11 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>Adnan Ahmad Allahabad</t>
+          <t>Ibrar Ahmed Kolkata</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
@@ -3388,11 +3388,11 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>Zulkar nain</t>
+          <t>Sk Nazir Hussain Kolkata</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -3408,11 +3408,11 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>Zakir Hussain assam India</t>
+          <t>Anwar Hussain Kolkata</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
@@ -3428,11 +3428,11 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>MD Serajul Hoda Purnea India</t>
+          <t>Zeeshan Shafique Dubai</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
@@ -3448,11 +3448,11 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>MD. Ziyaul Hoda Punia India</t>
+          <t>MOHAMMAD SHAHID ALAM</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
@@ -3468,11 +3468,11 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>FAIZUL HAQ Bandipora Srinagar J&amp;K</t>
+          <t>MOHAMMED ZAINUL ABEDIN ALAM</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
@@ -3488,11 +3488,11 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>Shahenshah Haidar Bihar India</t>
+          <t>Md wasim, Kolkata</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
@@ -3508,11 +3508,11 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>Md Shakil Khan Bhar+Dubai</t>
+          <t>Mohammad kaif, Kolkata</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -3528,11 +3528,11 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>Zahid Nazir Anantnag</t>
+          <t>Syed zarar mehdi Kolkata</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
@@ -3548,11 +3548,11 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>Zahid Ansari Vikroli Mumbai</t>
+          <t>Tahir shaikh Mumbai India</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
@@ -3568,11 +3568,11 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>Jamaal Ali</t>
+          <t>Adnan Ahmad Allahabad</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
@@ -3588,11 +3588,11 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>Tanweer Hussain</t>
+          <t>Zulkar nain</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
@@ -3608,11 +3608,11 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>Sofi Alam Mallick</t>
+          <t>Zakir Hussain assam India</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -3628,11 +3628,11 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>Shubhgautam</t>
+          <t>MD Serajul Hoda Purnea India</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -3648,11 +3648,11 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>Faiz Gohar</t>
+          <t>MD. Ziyaul Hoda Punia India</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
@@ -3668,16 +3668,16 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>1177</v>
+        <v>1151</v>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>Shifa Shaikh Maharashtra</t>
+          <t>FAIZUL HAQ Bandipora Srinagar J&amp;K</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t xml:space="preserve">Jamaal Ali </t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -3688,16 +3688,16 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>1178</v>
+        <v>1152</v>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>Mariam Khan Asaam India</t>
+          <t>Shahenshah Haidar Bihar India</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t xml:space="preserve">Jamaal Ali </t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -3708,16 +3708,16 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>1179</v>
+        <v>1153</v>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>Urujj Khushhaaal India</t>
+          <t>Md Shakil Khan Bhar+Dubai</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t xml:space="preserve">Jamaal Ali </t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -3728,16 +3728,16 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>1180</v>
+        <v>1154</v>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>Tahaseenn Khushhaaal India</t>
+          <t>Zahid Nazir Anantnag</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t xml:space="preserve">Jamaal Ali </t>
         </is>
       </c>
       <c r="D165" s="3" t="inlineStr">
@@ -3748,16 +3748,16 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>1181</v>
+        <v>1155</v>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>Afaaf Khushhaaal India</t>
+          <t>Zahid Ansari Vikroli Mumbai</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t xml:space="preserve">Jamaal Ali </t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -3768,16 +3768,16 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>1182</v>
+        <v>1156</v>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>Iram Jamal Delhi</t>
+          <t>Jamaal Ali</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t xml:space="preserve">Jamaal Ali </t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
@@ -3788,16 +3788,16 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>1183</v>
+        <v>1157</v>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>Nusrat Bhat</t>
+          <t>Tanweer Hussain</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t xml:space="preserve">Jamaal Ali </t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -3808,16 +3808,16 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>1184</v>
+        <v>1158</v>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>Najma Arif</t>
+          <t>Sofi Alam Mallick</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t xml:space="preserve">Jamaal Ali </t>
         </is>
       </c>
       <c r="D169" s="3" t="inlineStr">
@@ -3828,16 +3828,16 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>1185</v>
+        <v>1159</v>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>Sana Jamal Delhi</t>
+          <t>Shubhgautam</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t xml:space="preserve">Jamaal Ali </t>
         </is>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -3848,16 +3848,16 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>1186</v>
+        <v>1382</v>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>Syeda Sabina Malik Asaam</t>
+          <t>MD afif</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t>Jamaal ali</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -3868,16 +3868,16 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>1187</v>
+        <v>1388</v>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>Rukaya Riaz</t>
+          <t>Rayees Qayoom</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t>Jamaal ali</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
@@ -3888,16 +3888,16 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>1188</v>
+        <v>1390</v>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>Sakina Bano</t>
+          <t>FAIZUL HAQ</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t>Jamaal ali</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -3908,16 +3908,16 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>1189</v>
+        <v>1384</v>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>Sakila Younus</t>
+          <t>SHAHID ALAM</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t>Jamaal ali</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -3928,16 +3928,16 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>1190</v>
+        <v>1160</v>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>Jasmin Younus</t>
+          <t>Faiz Gohar</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabreen Younus</t>
+          <t xml:space="preserve">Jamaal Ali </t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -3948,11 +3948,11 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>Taiyaba Farooq Memom</t>
+          <t>Shifa Shaikh Maharashtra</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
@@ -3968,11 +3968,11 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>Farhat Riaz Patna Bihar</t>
+          <t>Mariam Khan Asaam India</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
@@ -3988,11 +3988,11 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>Saniya Arif Gohar</t>
+          <t>Urujj Khushhaaal India</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -4008,11 +4008,11 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>Haseena Khan</t>
+          <t>Tahaseenn Khushhaaal India</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
@@ -4028,11 +4028,11 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>Tamanna Firdaus</t>
+          <t>Afaaf Khushhaaal India</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -4048,11 +4048,11 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>Sapna Patel</t>
+          <t>Iram Jamal Delhi</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -4068,11 +4068,11 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>Sunaina Gohar</t>
+          <t>Nusrat Bhat</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -4088,11 +4088,11 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>Rasida Parween</t>
+          <t>Najma Arif</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -4108,11 +4108,11 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>Aksha Gohar</t>
+          <t>Sana Jamal Delhi</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
@@ -4128,11 +4128,11 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>fizaa gohar</t>
+          <t>Syeda Sabina Malik Asaam</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
@@ -4148,11 +4148,11 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>zeba Ansari</t>
+          <t>Rukaya Riaz</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
@@ -4168,11 +4168,11 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>Sufya Shahadat</t>
+          <t>Sakina Bano</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -4188,11 +4188,11 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>Zakir Hussain</t>
+          <t>Sakila Younus</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -4208,11 +4208,11 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>Hamdiya Kazim</t>
+          <t>Jasmin Younus</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -4228,11 +4228,11 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>Zenab Delhi</t>
+          <t>Taiyaba Farooq Memom</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
@@ -4248,11 +4248,11 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>Shabnam Alam</t>
+          <t>Farhat Riaz Patna Bihar</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
@@ -4268,11 +4268,11 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>Sufiya Alam</t>
+          <t>Saniya Arif Gohar</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
@@ -4288,11 +4288,11 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>Lubeena Mehmood</t>
+          <t>Haseena Khan</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
@@ -4308,16 +4308,16 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>Mishaal Farhan HYD Pak</t>
+          <t>Tamanna Firdaus</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D194" s="3" t="inlineStr">
@@ -4328,16 +4328,16 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>1210</v>
+        <v>1196</v>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>Raza Farhan HYD Pak</t>
+          <t>Sapna Patel</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
@@ -4348,16 +4348,16 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>1211</v>
+        <v>1197</v>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Farhan HYD Pak</t>
+          <t>Sunaina Gohar</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
@@ -4368,16 +4368,16 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>1212</v>
+        <v>1198</v>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>Ishmal Furqan HYD Pak</t>
+          <t>Rasida Parween</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -4388,16 +4388,16 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>1213</v>
+        <v>1199</v>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>Areeba Furqan HYD Pak</t>
+          <t>Aksha Gohar</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
@@ -4408,16 +4408,16 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>1214</v>
+        <v>1200</v>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>Syeda Samia Gohar HYD Pak</t>
+          <t>fizaa gohar</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
@@ -4428,16 +4428,16 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>1215</v>
+        <v>1201</v>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>Anoosha Furqan HYD Pak</t>
+          <t>zeba Ansari</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -4448,16 +4448,16 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>1216</v>
+        <v>1202</v>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>Sumair Naeem HYD Pak</t>
+          <t>Sufya Shahadat</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
@@ -4468,16 +4468,16 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>1217</v>
+        <v>1203</v>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>Naveera Farhan HYD Pak</t>
+          <t>Zakir Hussain</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -4488,16 +4488,16 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>1218</v>
+        <v>1204</v>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>Areesha Furqan(Hyderabad )</t>
+          <t>Hamdiya Kazim</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
@@ -4508,16 +4508,16 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>1219</v>
+        <v>1205</v>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>Farkhunda Saleem karachi</t>
+          <t>Zenab Delhi</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
@@ -4528,16 +4528,16 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>1220</v>
+        <v>1206</v>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>Tamanna Firdaus India</t>
+          <t>Shabnam Alam</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
@@ -4548,16 +4548,16 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>1221</v>
+        <v>1207</v>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>Afreen Kamal India</t>
+          <t>Sufiya Alam</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -4568,16 +4568,16 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>1222</v>
+        <v>1208</v>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>Noushaba Gohar Kotri</t>
+          <t>Lubeena Mehmood</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan</t>
+          <t xml:space="preserve"> Sabreen Younus</t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
@@ -4588,11 +4588,11 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>1223</v>
+        <v>1209</v>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>Minaz khanum India</t>
+          <t>Mishaal Farhan HYD Pak</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -4608,11 +4608,11 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>1224</v>
+        <v>1210</v>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>Shabnam Bano India</t>
+          <t>Raza Farhan HYD Pak</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
@@ -4628,11 +4628,11 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>1225</v>
+        <v>1211</v>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan hyderabad</t>
+          <t>Muhammad Farhan HYD Pak</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
@@ -4648,16 +4648,16 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>1226</v>
+        <v>1212</v>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>Sumair Aslam</t>
+          <t>Ishmal Furqan HYD Pak</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
@@ -4668,16 +4668,16 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>1227</v>
+        <v>1213</v>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>Rownak Jahan</t>
+          <t>Areeba Furqan HYD Pak</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -4688,16 +4688,16 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>1228</v>
+        <v>1214</v>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>Fayzul Karim</t>
+          <t>Syeda Samia Gohar HYD Pak</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
@@ -4708,16 +4708,16 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>1229</v>
+        <v>1215</v>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>Rasel kabir</t>
+          <t>Anoosha Furqan HYD Pak</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -4728,16 +4728,16 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>1230</v>
+        <v>1216</v>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>Farhana islam</t>
+          <t>Sumair Naeem HYD Pak</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
@@ -4748,16 +4748,16 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>1231</v>
+        <v>1217</v>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>Maria Gohar</t>
+          <t>Naveera Farhan HYD Pak</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
@@ -4768,16 +4768,16 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>1232</v>
+        <v>1218</v>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>MD Firdous</t>
+          <t>Areesha Furqan(Hyderabad )</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
@@ -4788,16 +4788,16 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>1233</v>
+        <v>1219</v>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>Al Amin Gohar</t>
+          <t>Farkhunda Saleem karachi</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
@@ -4808,16 +4808,16 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>1234</v>
+        <v>1220</v>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>Beauty Rani</t>
+          <t>Tamanna Firdaus India</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
@@ -4828,16 +4828,16 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>1235</v>
+        <v>1221</v>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>Tarin Tara</t>
+          <t>Afreen Kamal India</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
@@ -4848,16 +4848,16 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>Moon Afsana</t>
+          <t>Noushaba Gohar Kotri</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
@@ -4868,16 +4868,16 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>1237</v>
+        <v>1223</v>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>Asia Akter</t>
+          <t>Minaz khanum India</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
@@ -4888,16 +4888,16 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>1238</v>
+        <v>1224</v>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>Masuma Akter</t>
+          <t>Shabnam Bano India</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
@@ -4908,16 +4908,16 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>1239</v>
+        <v>1225</v>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>Runa Akter</t>
+          <t>Kanwal Farhan hyderabad</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Kanwal Farhan</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
@@ -4928,11 +4928,11 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>1240</v>
+        <v>1226</v>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>Bushra khatun</t>
+          <t>Sumair Aslam</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -4948,11 +4948,11 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>Afsha khatun</t>
+          <t>Rownak Jahan</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -4968,11 +4968,11 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>Rina Akter</t>
+          <t>Fayzul Karim</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
@@ -4988,11 +4988,11 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>Shanta Akter</t>
+          <t>Rasel kabir</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
@@ -5008,11 +5008,11 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>Mahatarima Hashi</t>
+          <t>Farhana islam</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
@@ -5028,11 +5028,11 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>Atif Ahmad</t>
+          <t>Maria Gohar</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
@@ -5048,11 +5048,11 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>1246</v>
+        <v>1232</v>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>Shamima Nasrin</t>
+          <t>MD Firdous</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
@@ -5068,11 +5068,11 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>Sultana Razia</t>
+          <t>Al Amin Gohar</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
@@ -5088,11 +5088,11 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>1248</v>
+        <v>1234</v>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>Riaz ul Islam</t>
+          <t>Beauty Rani</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
@@ -5108,11 +5108,11 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>1249</v>
+        <v>1235</v>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>Nazrin Rumi</t>
+          <t>Tarin Tara</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
@@ -5128,11 +5128,11 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>1250</v>
+        <v>1236</v>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>Shahadat Hossain</t>
+          <t>Moon Afsana</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
@@ -5148,11 +5148,11 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>1251</v>
+        <v>1237</v>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>Seema Islam</t>
+          <t>Asia Akter</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
@@ -5168,11 +5168,11 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>Doly Islam</t>
+          <t>Masuma Akter</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
@@ -5188,11 +5188,11 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>1253</v>
+        <v>1239</v>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>MD Rafi Uddin</t>
+          <t>Runa Akter</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -5208,11 +5208,11 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>1254</v>
+        <v>1240</v>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>Kabirul Islam</t>
+          <t>Bushra khatun</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
@@ -5228,11 +5228,11 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>1255</v>
+        <v>1241</v>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>Joytara Bibi</t>
+          <t>Afsha khatun</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
@@ -5248,11 +5248,11 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>1256</v>
+        <v>1242</v>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>MD Zane Alam</t>
+          <t>Rina Akter</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
@@ -5268,11 +5268,11 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>1257</v>
+        <v>1243</v>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>Shamima Aktar</t>
+          <t>Shanta Akter</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
@@ -5288,11 +5288,11 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>1258</v>
+        <v>1244</v>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>Azizul Haque</t>
+          <t>Mahatarima Hashi</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
@@ -5308,11 +5308,11 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>1259</v>
+        <v>1245</v>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>Fouzia Karim</t>
+          <t>Atif Ahmad</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
@@ -5328,11 +5328,11 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>Zannatun Nahar</t>
+          <t>Shamima Nasrin</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
@@ -5348,11 +5348,11 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>1261</v>
+        <v>1247</v>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>Selina Nasrin</t>
+          <t>Sultana Razia</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
@@ -5368,11 +5368,11 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>Mousumi</t>
+          <t>Riaz ul Islam</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
@@ -5388,11 +5388,11 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>1263</v>
+        <v>1249</v>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>Monalisa</t>
+          <t>Nazrin Rumi</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
@@ -5408,11 +5408,11 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>1264</v>
+        <v>1250</v>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>Shapla Shapu</t>
+          <t>Shahadat Hossain</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
@@ -5428,11 +5428,11 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>1265</v>
+        <v>1251</v>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>Fateema Sayma</t>
+          <t>Seema Islam</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -5448,11 +5448,11 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>Fateema Sidratul Muntaha</t>
+          <t>Doly Islam</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
@@ -5468,11 +5468,11 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>1267</v>
+        <v>1253</v>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>Jannatun Nila</t>
+          <t>MD Rafi Uddin</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
@@ -5488,11 +5488,11 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>1268</v>
+        <v>1254</v>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>Taslima Rashid</t>
+          <t>Kabirul Islam</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
@@ -5508,11 +5508,11 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>1269</v>
+        <v>1255</v>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>Afrina Arpi</t>
+          <t>Joytara Bibi</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
@@ -5528,11 +5528,11 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>1270</v>
+        <v>1256</v>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>Turjo Armania</t>
+          <t>MD Zane Alam</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
@@ -5548,11 +5548,11 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>Mobarok Hossain</t>
+          <t>Shamima Aktar</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
@@ -5568,11 +5568,11 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>Haieder Ali</t>
+          <t>Azizul Haque</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
@@ -5588,11 +5588,11 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>Samsul Alam</t>
+          <t>Fouzia Karim</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
@@ -5608,11 +5608,11 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>1274</v>
+        <v>1260</v>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>Firoj Nazrul</t>
+          <t>Zannatun Nahar</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
@@ -5628,11 +5628,11 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>1275</v>
+        <v>1261</v>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>Nadim</t>
+          <t>Selina Nasrin</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
@@ -5648,11 +5648,11 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>1276</v>
+        <v>1262</v>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>Rukshana Pervin</t>
+          <t>Mousumi</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
@@ -5668,11 +5668,11 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>1277</v>
+        <v>1263</v>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>Ruhul Amin</t>
+          <t>Monalisa</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
@@ -5688,11 +5688,11 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>1278</v>
+        <v>1264</v>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>Fuljuri Khatun</t>
+          <t>Shapla Shapu</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
@@ -5708,11 +5708,11 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>Tajmira Islam</t>
+          <t>Fateema Sayma</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
@@ -5728,11 +5728,11 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>1280</v>
+        <v>1266</v>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>Mizanur Rahman</t>
+          <t>Fateema Sidratul Muntaha</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
@@ -5748,11 +5748,11 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>1281</v>
+        <v>1267</v>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>Sabbir Reza</t>
+          <t>Jannatun Nila</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
@@ -5768,11 +5768,11 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>1282</v>
+        <v>1268</v>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>Md Ariful Islm</t>
+          <t>Taslima Rashid</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
@@ -5788,11 +5788,11 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>1283</v>
+        <v>1269</v>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>Palash Mahmud</t>
+          <t>Afrina Arpi</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
@@ -5808,11 +5808,11 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>1284</v>
+        <v>1270</v>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>Sabina Khatun</t>
+          <t>Turjo Armania</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
@@ -5828,16 +5828,16 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>1285</v>
+        <v>1361</v>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>Aazma Farooq Pasrur</t>
+          <t>MD Siam</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D270" s="3" t="inlineStr">
@@ -5848,16 +5848,16 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>1286</v>
+        <v>1412</v>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>Madiha Siddiqui</t>
+          <t>Hasan Mollik</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D271" s="3" t="inlineStr">
@@ -5868,16 +5868,16 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>1287</v>
+        <v>1417</v>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>Shakeela Mudasir</t>
+          <t>Fardous Talukdar</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D272" s="3" t="inlineStr">
@@ -5888,16 +5888,16 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>1288</v>
+        <v>1271</v>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>Gautam India</t>
+          <t>Mobarok Hossain</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D273" s="3" t="inlineStr">
@@ -5908,16 +5908,16 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>1289</v>
+        <v>1272</v>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>Kanwal Farhan HYD Pak</t>
+          <t>Haieder Ali</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D274" s="3" t="inlineStr">
@@ -5928,16 +5928,16 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>1290</v>
+        <v>1273</v>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>Amna Rafiq</t>
+          <t>Samsul Alam</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D275" s="3" t="inlineStr">
@@ -5948,16 +5948,16 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>1291</v>
+        <v>1274</v>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh irfan Gohar</t>
+          <t>Firoj Nazrul</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D276" s="3" t="inlineStr">
@@ -5968,16 +5968,16 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>1292</v>
+        <v>1275</v>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>Shazia A.Razaq Mirpur Khas Pak</t>
+          <t>Nadim</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D277" s="3" t="inlineStr">
@@ -5988,16 +5988,16 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>1293</v>
+        <v>1276</v>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>Samina Wahab</t>
+          <t>Rukshana Pervin</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D278" s="3" t="inlineStr">
@@ -6008,16 +6008,16 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>Shahenshah Haidar</t>
+          <t>Ruhul Amin</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D279" s="3" t="inlineStr">
@@ -6028,16 +6028,16 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>1295</v>
+        <v>1278</v>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>Yasmeen Abid</t>
+          <t>Fuljuri Khatun</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D280" s="3" t="inlineStr">
@@ -6048,16 +6048,16 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>1296</v>
+        <v>1279</v>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>Ashfaque</t>
+          <t>Tajmira Islam</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D281" s="3" t="inlineStr">
@@ -6068,16 +6068,16 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>Ali Gohar</t>
+          <t>Mizanur Rahman</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D282" s="3" t="inlineStr">
@@ -6088,16 +6088,16 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>1298</v>
+        <v>1281</v>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>Memona Rizvi</t>
+          <t>Sabbir Reza</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D283" s="3" t="inlineStr">
@@ -6108,16 +6108,16 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>Qamar Un Nisa (Pak)</t>
+          <t>Md Ariful Islm</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D284" s="3" t="inlineStr">
@@ -6128,16 +6128,16 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>1300</v>
+        <v>1283</v>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>Aneela Memon</t>
+          <t>Palash Mahmud</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>Kaneez Fatima</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D285" s="3" t="inlineStr">
@@ -6148,16 +6148,16 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>Reshma Khan</t>
+          <t>Sabina Khatun</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Afsha Khatun</t>
         </is>
       </c>
       <c r="D286" s="3" t="inlineStr">
@@ -6168,16 +6168,16 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>Firdaush Khan</t>
+          <t>Aazma Farooq Pasrur</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D287" s="3" t="inlineStr">
@@ -6188,16 +6188,16 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>Noor Jahan</t>
+          <t>Madiha Siddiqui</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D288" s="3" t="inlineStr">
@@ -6208,16 +6208,16 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>Rabeka Khanam</t>
+          <t>Shakeela Mudasir</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D289" s="3" t="inlineStr">
@@ -6228,16 +6228,16 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>Shamsheeda Bughum</t>
+          <t>Gautam India</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D290" s="3" t="inlineStr">
@@ -6248,16 +6248,16 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>Zeba Ansari</t>
+          <t>Kanwal Farhan HYD Pak</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D291" s="3" t="inlineStr">
@@ -6268,16 +6268,16 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>Saba Ansari</t>
+          <t>Amna Rafiq</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D292" s="3" t="inlineStr">
@@ -6288,16 +6288,16 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>Neha Naaz</t>
+          <t>Mahrukh irfan Gohar</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D293" s="3" t="inlineStr">
@@ -6308,16 +6308,16 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>Fathima Sani</t>
+          <t>Shazia A.Razaq Mirpur Khas Pak</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D294" s="3" t="inlineStr">
@@ -6328,16 +6328,16 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>Parbin mallick</t>
+          <t>Samina Wahab</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D295" s="3" t="inlineStr">
@@ -6348,16 +6348,16 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>Shahida</t>
+          <t>Shahenshah Haidar</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D296" s="3" t="inlineStr">
@@ -6368,16 +6368,16 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>Naseem Afreen</t>
+          <t>Yasmeen Abid</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D297" s="3" t="inlineStr">
@@ -6388,16 +6388,16 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>Zaiba Faruque Shaikh</t>
+          <t>Ashfaque</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D298" s="3" t="inlineStr">
@@ -6408,16 +6408,16 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>Sameena Taj , Mysor</t>
+          <t>Ali Gohar</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D299" s="3" t="inlineStr">
@@ -6428,16 +6428,16 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>Rafia Beghum</t>
+          <t>Memona Rizvi</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D300" s="3" t="inlineStr">
@@ -6448,16 +6448,16 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>Shamim Shaikh</t>
+          <t>Qamar Un Nisa (Pak)</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D301" s="3" t="inlineStr">
@@ -6468,16 +6468,16 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>Afreen parvez</t>
+          <t>Aneela Memon</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>Amirah Didi</t>
+          <t>Kaneez Fatima</t>
         </is>
       </c>
       <c r="D302" s="3" t="inlineStr">
@@ -6488,11 +6488,11 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>Sabreen Khan</t>
+          <t>Reshma Khan</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
@@ -6508,11 +6508,11 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>Naheeda anjum</t>
+          <t>Firdaush Khan</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
@@ -6528,11 +6528,11 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>Dr smita shete India</t>
+          <t>Noor Jahan</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
@@ -6548,11 +6548,11 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>Momina H M</t>
+          <t>Rabeka Khanam</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
@@ -6568,11 +6568,11 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>1322</v>
+        <v>1305</v>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>Iram Bhabi</t>
+          <t>Shamsheeda Bughum</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
@@ -6588,16 +6588,16 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>Sajjad Ali Abbasi</t>
+          <t>Zeba Ansari</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D308" s="3" t="inlineStr">
@@ -6608,16 +6608,16 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>1324</v>
+        <v>1307</v>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>Hassan Abid</t>
+          <t>Saba Ansari</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D309" s="3" t="inlineStr">
@@ -6628,16 +6628,16 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>1325</v>
+        <v>1308</v>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>Shafeeq Abid</t>
+          <t>Neha Naaz</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D310" s="3" t="inlineStr">
@@ -6648,16 +6648,16 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>Siraj Munir</t>
+          <t>Fathima Sani</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D311" s="3" t="inlineStr">
@@ -6668,16 +6668,16 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>Abdul Latif</t>
+          <t>Parbin mallick</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D312" s="3" t="inlineStr">
@@ -6688,16 +6688,16 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>Ali Rehman Lahore</t>
+          <t>Shahida</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D313" s="3" t="inlineStr">
@@ -6708,16 +6708,16 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>1329</v>
+        <v>1312</v>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>Ejaz Ali Mirpur Mathelo</t>
+          <t>Naseem Afreen</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D314" s="3" t="inlineStr">
@@ -6728,16 +6728,16 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>1330</v>
+        <v>1313</v>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>M Zaid LHR Pak</t>
+          <t>Zaiba Faruque Shaikh</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D315" s="3" t="inlineStr">
@@ -6748,16 +6748,16 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>1331</v>
+        <v>1314</v>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>Ataa arshad KCH Pak</t>
+          <t>Sameena Taj , Mysor</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D316" s="3" t="inlineStr">
@@ -6768,16 +6768,16 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>1332</v>
+        <v>1315</v>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>Sharafuddin Chandio</t>
+          <t>Rafia Beghum</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D317" s="3" t="inlineStr">
@@ -6788,16 +6788,16 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>1333</v>
+        <v>1316</v>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>Saud Bhai</t>
+          <t>Shamim Shaikh</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D318" s="3" t="inlineStr">
@@ -6808,16 +6808,16 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>1334</v>
+        <v>1317</v>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>Qamar Ali depalpur</t>
+          <t>Afreen parvez</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D319" s="3" t="inlineStr">
@@ -6828,16 +6828,16 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>1335</v>
+        <v>1318</v>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>Muhib Sakhi</t>
+          <t>Sabreen Khan</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D320" s="3" t="inlineStr">
@@ -6848,16 +6848,16 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>1336</v>
+        <v>1319</v>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>Ali Afzal</t>
+          <t>Naheeda anjum</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D321" s="3" t="inlineStr">
@@ -6868,16 +6868,16 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>1337</v>
+        <v>1320</v>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>Yousuf KCH</t>
+          <t>Dr smita shete India</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D322" s="3" t="inlineStr">
@@ -6888,16 +6888,16 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>1338</v>
+        <v>1321</v>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>Talha Farooq</t>
+          <t>Momina H M</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D323" s="3" t="inlineStr">
@@ -6908,16 +6908,16 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>1339</v>
+        <v>1405</v>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>Danish Gohar</t>
+          <t>Rukhshana khatoon</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Kushboo</t>
         </is>
       </c>
       <c r="D324" s="3" t="inlineStr">
@@ -6928,16 +6928,16 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>1340</v>
+        <v>1389</v>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>Sohail abbas Bhaker</t>
+          <t>Saba Ansari</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Kushboo</t>
         </is>
       </c>
       <c r="D325" s="3" t="inlineStr">
@@ -6948,16 +6948,16 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>1341</v>
+        <v>1322</v>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>Ather ansari</t>
+          <t>Iram Bhabi</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>Rizwan Gohar</t>
+          <t>Amirah Didi</t>
         </is>
       </c>
       <c r="D326" s="3" t="inlineStr">
@@ -6968,11 +6968,11 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>1342</v>
+        <v>1323</v>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>kashif ali</t>
+          <t>Sajjad Ali Abbasi</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
@@ -6988,11 +6988,11 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>1343</v>
+        <v>1324</v>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>Azeem nadeem Qasoor</t>
+          <t>Hassan Abid</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
@@ -7008,11 +7008,11 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>1344</v>
+        <v>1325</v>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>Junaid Mandi bahauddin</t>
+          <t>Shafeeq Abid</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
@@ -7028,11 +7028,11 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>1345</v>
+        <v>1326</v>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Imtiaz</t>
+          <t>Siraj Munir</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
@@ -7048,11 +7048,11 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>1346</v>
+        <v>1327</v>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>Yaseer Uncle Saudia</t>
+          <t>Abdul Latif</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
@@ -7068,11 +7068,11 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>1347</v>
+        <v>1328</v>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>Arsalan Ali Lahore</t>
+          <t>Ali Rehman Lahore</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
@@ -7088,11 +7088,11 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>1348</v>
+        <v>1329</v>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>Hafiz amir</t>
+          <t>Ejaz Ali Mirpur Mathelo</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
@@ -7108,11 +7108,11 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>1349</v>
+        <v>1330</v>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>Muhammad Talha Sajid</t>
+          <t>M Zaid LHR Pak</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
@@ -7128,11 +7128,11 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>1350</v>
+        <v>1331</v>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>Saqlain yasin</t>
+          <t>Ataa arshad KCH Pak</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
@@ -7140,19 +7140,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D335" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D335" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>1351</v>
+        <v>1332</v>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>Ali Hamza</t>
+          <t>Sharafuddin Chandio</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
@@ -7160,19 +7160,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D336" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D336" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>1352</v>
+        <v>1333</v>
       </c>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>Ali Javaid</t>
+          <t>Saud Bhai</t>
         </is>
       </c>
       <c r="C337" s="2" t="inlineStr">
@@ -7180,19 +7180,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D337" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D337" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>1353</v>
+        <v>1334</v>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>Ahmad Raza</t>
+          <t>Qamar Ali depalpur</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
@@ -7200,19 +7200,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D338" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D338" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>1354</v>
+        <v>1335</v>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>Nasir AlGohar</t>
+          <t>Muhib Sakhi</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
@@ -7220,19 +7220,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D339" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D339" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>1355</v>
+        <v>1336</v>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>Fida Uncle</t>
+          <t>Ali Afzal</t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr">
@@ -7240,19 +7240,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D340" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D340" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>1356</v>
+        <v>1337</v>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>Ali Hamza</t>
+          <t>Yousuf KCH</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
@@ -7260,19 +7260,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D341" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D341" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>Imran babar</t>
+          <t>Talha Farooq</t>
         </is>
       </c>
       <c r="C342" s="2" t="inlineStr">
@@ -7280,19 +7280,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D342" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D342" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>Bilal Qasim</t>
+          <t>Danish Gohar</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr">
@@ -7300,19 +7300,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D343" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D343" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>1359</v>
+        <v>1340</v>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>Fayaz</t>
+          <t>Sohail abbas Bhaker</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr">
@@ -7320,19 +7320,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D344" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D344" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>1360</v>
+        <v>1341</v>
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>Sabir ali</t>
+          <t>Ather ansari</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
@@ -7340,24 +7340,24 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D345" s="4" t="inlineStr">
-        <is>
-          <t>Submitted</t>
+      <c r="D345" s="3" t="inlineStr">
+        <is>
+          <t>Not Submitted</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>1361</v>
+        <v>1342</v>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>MD Siam</t>
+          <t>kashif ali</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D346" s="3" t="inlineStr">
@@ -7368,11 +7368,11 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>1380</v>
+        <v>1343</v>
       </c>
       <c r="B347" s="2" t="inlineStr">
         <is>
-          <t>Sayed Waqas</t>
+          <t>Azeem nadeem Qasoor</t>
         </is>
       </c>
       <c r="C347" s="2" t="inlineStr">
@@ -7388,11 +7388,11 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>1381</v>
+        <v>1344</v>
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>M Imam</t>
+          <t>Junaid Mandi bahauddin</t>
         </is>
       </c>
       <c r="C348" s="2" t="inlineStr">
@@ -7408,16 +7408,16 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>1382</v>
+        <v>1345</v>
       </c>
       <c r="B349" s="2" t="inlineStr">
         <is>
-          <t>MD afif</t>
+          <t>Muhammad Imtiaz</t>
         </is>
       </c>
       <c r="C349" s="2" t="inlineStr">
         <is>
-          <t>Jamaal ali</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D349" s="3" t="inlineStr">
@@ -7428,16 +7428,16 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>1383</v>
+        <v>1346</v>
       </c>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>Saira Tabasam</t>
+          <t>Yaseer Uncle Saudia</t>
         </is>
       </c>
       <c r="C350" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Gohar</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D350" s="3" t="inlineStr">
@@ -7448,16 +7448,16 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>1384</v>
+        <v>1347</v>
       </c>
       <c r="B351" s="2" t="inlineStr">
         <is>
-          <t>SHAHID ALAM</t>
+          <t>Arsalan Ali Lahore</t>
         </is>
       </c>
       <c r="C351" s="2" t="inlineStr">
         <is>
-          <t>Jamaal ali</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D351" s="3" t="inlineStr">
@@ -7468,11 +7468,11 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>1385</v>
+        <v>1348</v>
       </c>
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t>Waleed raaz</t>
+          <t>Hafiz amir</t>
         </is>
       </c>
       <c r="C352" s="2" t="inlineStr">
@@ -7488,16 +7488,16 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>1386</v>
+        <v>1349</v>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>Areej shehwar</t>
+          <t>Muhammad Talha Sajid</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t>Mahnoor Khadim Hussain</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D353" s="3" t="inlineStr">
@@ -7508,11 +7508,11 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>1387</v>
+        <v>1350</v>
       </c>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>Awais Qarnain</t>
+          <t>Saqlain yasin</t>
         </is>
       </c>
       <c r="C354" s="2" t="inlineStr">
@@ -7520,79 +7520,79 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D354" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+      <c r="D354" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>1388</v>
+        <v>1351</v>
       </c>
       <c r="B355" s="2" t="inlineStr">
         <is>
-          <t>Rayees Qayoom</t>
+          <t>Ali Hamza</t>
         </is>
       </c>
       <c r="C355" s="2" t="inlineStr">
         <is>
-          <t>Jamaal ali</t>
-        </is>
-      </c>
-      <c r="D355" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D355" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>1389</v>
+        <v>1352</v>
       </c>
       <c r="B356" s="2" t="inlineStr">
         <is>
-          <t>Saba Ansari</t>
+          <t>Ali Javaid</t>
         </is>
       </c>
       <c r="C356" s="2" t="inlineStr">
         <is>
-          <t>Amirah Kushboo</t>
-        </is>
-      </c>
-      <c r="D356" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D356" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>1390</v>
+        <v>1353</v>
       </c>
       <c r="B357" s="2" t="inlineStr">
         <is>
-          <t>FAIZUL HAQ</t>
+          <t>Ahmad Raza</t>
         </is>
       </c>
       <c r="C357" s="2" t="inlineStr">
         <is>
-          <t>Jamaal ali</t>
-        </is>
-      </c>
-      <c r="D357" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D357" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>1391</v>
+        <v>1354</v>
       </c>
       <c r="B358" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Irfan</t>
+          <t>Nasir AlGohar</t>
         </is>
       </c>
       <c r="C358" s="2" t="inlineStr">
@@ -7600,19 +7600,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D358" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+      <c r="D358" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>1394</v>
+        <v>1355</v>
       </c>
       <c r="B359" s="2" t="inlineStr">
         <is>
-          <t>Saad khalid</t>
+          <t>Fida Uncle</t>
         </is>
       </c>
       <c r="C359" s="2" t="inlineStr">
@@ -7620,19 +7620,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D359" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+      <c r="D359" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>1395</v>
+        <v>1356</v>
       </c>
       <c r="B360" s="2" t="inlineStr">
         <is>
-          <t>Waleed Raaz</t>
+          <t>Ali Hamza</t>
         </is>
       </c>
       <c r="C360" s="2" t="inlineStr">
@@ -7640,19 +7640,19 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D360" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+      <c r="D360" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>1396</v>
+        <v>1357</v>
       </c>
       <c r="B361" s="2" t="inlineStr">
         <is>
-          <t>MD Munir rabnawaz</t>
+          <t>Imran babar</t>
         </is>
       </c>
       <c r="C361" s="2" t="inlineStr">
@@ -7660,84 +7660,84 @@
           <t>Rizwan Gohar</t>
         </is>
       </c>
-      <c r="D361" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+      <c r="D361" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>1399</v>
+        <v>1358</v>
       </c>
       <c r="B362" s="2" t="inlineStr">
         <is>
-          <t>Iram Irfan</t>
+          <t>Bilal Qasim</t>
         </is>
       </c>
       <c r="C362" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Gohar</t>
-        </is>
-      </c>
-      <c r="D362" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D362" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>1400</v>
+        <v>1359</v>
       </c>
       <c r="B363" s="2" t="inlineStr">
         <is>
-          <t>Shaheen Gulam Nabi</t>
+          <t>Fayaz</t>
         </is>
       </c>
       <c r="C363" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Gohar</t>
-        </is>
-      </c>
-      <c r="D363" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D363" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>1401</v>
+        <v>1360</v>
       </c>
       <c r="B364" s="2" t="inlineStr">
         <is>
-          <t>Javeria Gulam Nabi</t>
+          <t>Sabir ali</t>
         </is>
       </c>
       <c r="C364" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Gohar</t>
-        </is>
-      </c>
-      <c r="D364" s="3" t="inlineStr">
-        <is>
-          <t>Not Submitted</t>
+          <t>Rizwan Gohar</t>
+        </is>
+      </c>
+      <c r="D364" s="4" t="inlineStr">
+        <is>
+          <t>Submitted</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>1403</v>
+        <v>1380</v>
       </c>
       <c r="B365" s="2" t="inlineStr">
         <is>
-          <t>Shazia mushtaq</t>
+          <t>Sayed Waqas</t>
         </is>
       </c>
       <c r="C365" s="2" t="inlineStr">
         <is>
-          <t>Mahnoor Khadim Hussain</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D365" s="3" t="inlineStr">
@@ -7748,16 +7748,16 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>1405</v>
+        <v>1381</v>
       </c>
       <c r="B366" s="2" t="inlineStr">
         <is>
-          <t>Rukhshana khatoon</t>
+          <t>M Imam</t>
         </is>
       </c>
       <c r="C366" s="2" t="inlineStr">
         <is>
-          <t>Amirah Kushboo</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D366" s="3" t="inlineStr">
@@ -7768,16 +7768,16 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>1406</v>
+        <v>1385</v>
       </c>
       <c r="B367" s="2" t="inlineStr">
         <is>
-          <t>Asia Saleem</t>
+          <t>Waleed raaz</t>
         </is>
       </c>
       <c r="C367" s="2" t="inlineStr">
         <is>
-          <t>Mishaal Farhan</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D367" s="3" t="inlineStr">
@@ -7788,16 +7788,16 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>1407</v>
+        <v>1387</v>
       </c>
       <c r="B368" s="2" t="inlineStr">
         <is>
-          <t>Sidra perween</t>
+          <t>Awais Qarnain</t>
         </is>
       </c>
       <c r="C368" s="2" t="inlineStr">
         <is>
-          <t>Mishaal Farhan</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D368" s="3" t="inlineStr">
@@ -7808,16 +7808,16 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>1409</v>
+        <v>1391</v>
       </c>
       <c r="B369" s="2" t="inlineStr">
         <is>
-          <t>Saira Tabasam</t>
+          <t>Mahrukh Irfan</t>
         </is>
       </c>
       <c r="C369" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Gohar</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D369" s="3" t="inlineStr">
@@ -7828,16 +7828,16 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>1410</v>
+        <v>1394</v>
       </c>
       <c r="B370" s="2" t="inlineStr">
         <is>
-          <t>Maria Usman</t>
+          <t>Saad khalid</t>
         </is>
       </c>
       <c r="C370" s="2" t="inlineStr">
         <is>
-          <t>Mahrukh Gohar</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D370" s="3" t="inlineStr">
@@ -7848,16 +7848,16 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>1412</v>
+        <v>1395</v>
       </c>
       <c r="B371" s="2" t="inlineStr">
         <is>
-          <t>Hasan Mollik</t>
+          <t>Waleed Raaz</t>
         </is>
       </c>
       <c r="C371" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D371" s="3" t="inlineStr">
@@ -7868,16 +7868,16 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>1417</v>
+        <v>1396</v>
       </c>
       <c r="B372" s="2" t="inlineStr">
         <is>
-          <t>Fardous Talukdar</t>
+          <t>MD Munir rabnawaz</t>
         </is>
       </c>
       <c r="C372" s="2" t="inlineStr">
         <is>
-          <t>Afsha Khatun</t>
+          <t>Rizwan Gohar</t>
         </is>
       </c>
       <c r="D372" s="3" t="inlineStr">
